--- a/5_results/5_1_original/predictors_set_3.xlsx
+++ b/5_results/5_1_original/predictors_set_3.xlsx
@@ -716,22 +716,22 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.006017684936523438</v>
+        <v>0.0057525634765625</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.00200653076171875</v>
       </c>
       <c r="R2" t="n">
-        <v>1.428269386291504</v>
+        <v>1.885331869125366</v>
       </c>
       <c r="S2" t="n">
-        <v>0.006017684936523438</v>
+        <v>0.0057525634765625</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.00200653076171875</v>
       </c>
       <c r="U2" t="n">
-        <v>1.428269386291504</v>
+        <v>1.885331869125366</v>
       </c>
       <c r="V2" t="n">
         <v>1</v>
@@ -864,18 +864,18 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.003426074981689453</v>
+        <v>0.004008769989013672</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>0.2943072319030762</v>
+        <v>0.3706474304199219</v>
       </c>
       <c r="S3" t="n">
-        <v>0.003426074981689453</v>
+        <v>0.004008769989013672</v>
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>0.2943072319030762</v>
+        <v>0.3706474304199219</v>
       </c>
       <c r="V3" t="n">
         <v>1</v>
@@ -1008,18 +1008,18 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.004007577896118164</v>
+        <v>0.004014015197753906</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>0.3515641689300537</v>
+        <v>0.4412779808044434</v>
       </c>
       <c r="S4" t="n">
-        <v>0.004007577896118164</v>
+        <v>0.004014015197753906</v>
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>0.3515641689300537</v>
+        <v>0.4412779808044434</v>
       </c>
       <c r="V4" t="n">
         <v>1</v>
@@ -1152,18 +1152,18 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.05139756202697754</v>
+        <v>0.08436846733093262</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>0.6942455768585205</v>
+        <v>0.8136870861053467</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05139756202697754</v>
+        <v>0.08436846733093262</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>0.6942455768585205</v>
+        <v>0.8136870861053467</v>
       </c>
       <c r="V5" t="n">
         <v>1</v>
@@ -1301,19 +1301,19 @@
         <v>0.004007339477539062</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.002006769180297852</v>
       </c>
       <c r="R6" t="n">
-        <v>0.6807806491851807</v>
+        <v>0.8798415660858154</v>
       </c>
       <c r="S6" t="n">
         <v>0.004007339477539062</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.002006769180297852</v>
       </c>
       <c r="U6" t="n">
-        <v>0.6807806491851807</v>
+        <v>0.8798415660858154</v>
       </c>
       <c r="V6" t="n">
         <v>1</v>
@@ -1446,18 +1446,18 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.001744747161865234</v>
+        <v>0.004012584686279297</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>0.1499190330505371</v>
+        <v>0.1928658485412598</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001744747161865234</v>
+        <v>0.004012584686279297</v>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>0.1499190330505371</v>
+        <v>0.1928658485412598</v>
       </c>
       <c r="V7" t="n">
         <v>1</v>
@@ -1590,18 +1590,18 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.004006147384643555</v>
+        <v>0.002006769180297852</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>0.6620640754699707</v>
+        <v>0.8215622901916504</v>
       </c>
       <c r="S8" t="n">
-        <v>0.004006147384643555</v>
+        <v>0.002006769180297852</v>
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>0.6620640754699707</v>
+        <v>0.8215622901916504</v>
       </c>
       <c r="V8" t="n">
         <v>1</v>
@@ -1734,18 +1734,18 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.004010677337646484</v>
+        <v>0.004008769989013672</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>0.4005312919616699</v>
+        <v>0.5130307674407959</v>
       </c>
       <c r="S9" t="n">
-        <v>0.004010677337646484</v>
+        <v>0.004008769989013672</v>
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>0.4005312919616699</v>
+        <v>0.5130307674407959</v>
       </c>
       <c r="V9" t="n">
         <v>1</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.005758047103881836</v>
+        <v>0.006011962890625</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.004736900329589844</v>
       </c>
       <c r="R10" t="n">
-        <v>2.532310247421265</v>
+        <v>3.36512565612793</v>
       </c>
       <c r="S10" t="n">
-        <v>0.005758047103881836</v>
+        <v>0.006011962890625</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.004736900329589844</v>
       </c>
       <c r="U10" t="n">
-        <v>2.532310247421265</v>
+        <v>3.36512565612793</v>
       </c>
       <c r="V10" t="n">
         <v>1</v>
@@ -2028,18 +2028,18 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.005970954895019531</v>
+        <v>0.007561922073364258</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>0.1867921352386475</v>
+        <v>0.2338671684265137</v>
       </c>
       <c r="S11" t="n">
-        <v>0.005970954895019531</v>
+        <v>0.007561922073364258</v>
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>0.1867921352386475</v>
+        <v>0.2338671684265137</v>
       </c>
       <c r="V11" t="n">
         <v>1</v>
@@ -2172,18 +2172,18 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.001998662948608398</v>
+        <v>0.004008293151855469</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>0.615140438079834</v>
+        <v>0.7110960483551025</v>
       </c>
       <c r="S12" t="n">
-        <v>0.001998662948608398</v>
+        <v>0.004008293151855469</v>
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>0.615140438079834</v>
+        <v>0.7110960483551025</v>
       </c>
       <c r="V12" t="n">
         <v>1</v>
@@ -2318,22 +2318,22 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.004006862640380859</v>
+        <v>0.004811286926269531</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.6930396556854248</v>
+        <v>1.020952939987183</v>
       </c>
       <c r="S13" t="n">
-        <v>0.004006862640380859</v>
+        <v>0.004811286926269531</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.6930396556854248</v>
+        <v>1.020952939987183</v>
       </c>
       <c r="V13" t="n">
         <v>1</v>
@@ -2466,18 +2466,18 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0145409107208252</v>
+        <v>0.03366351127624512</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
-        <v>0.2549765110015869</v>
+        <v>0.3656418323516846</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0145409107208252</v>
+        <v>0.03366351127624512</v>
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>0.2549765110015869</v>
+        <v>0.3656418323516846</v>
       </c>
       <c r="V14" t="n">
         <v>1</v>
@@ -2610,18 +2610,18 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.002006053924560547</v>
+        <v>0.003754854202270508</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>0.09694838523864746</v>
+        <v>0.1060667037963867</v>
       </c>
       <c r="S15" t="n">
-        <v>0.002006053924560547</v>
+        <v>0.003754854202270508</v>
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>0.09694838523864746</v>
+        <v>0.1060667037963867</v>
       </c>
       <c r="V15" t="n">
         <v>1</v>
@@ -2754,18 +2754,18 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.004012107849121094</v>
+        <v>0.004010200500488281</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>0.7528750896453857</v>
+        <v>1.072200536727905</v>
       </c>
       <c r="S16" t="n">
-        <v>0.004012107849121094</v>
+        <v>0.004010200500488281</v>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>0.7528750896453857</v>
+        <v>1.072200536727905</v>
       </c>
       <c r="V16" t="n">
         <v>1</v>
@@ -2900,22 +2900,22 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.004009246826171875</v>
+        <v>0.006013631820678711</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.004214286804199219</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3337585926055908</v>
+        <v>0.4353342056274414</v>
       </c>
       <c r="S17" t="n">
-        <v>0.004009246826171875</v>
+        <v>0.006013631820678711</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.004214286804199219</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3337585926055908</v>
+        <v>0.4353342056274414</v>
       </c>
       <c r="V17" t="n">
         <v>1</v>
@@ -3048,18 +3048,18 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.01432895660400391</v>
+        <v>0.01805758476257324</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0.355884313583374</v>
+        <v>0.4402391910552979</v>
       </c>
       <c r="S18" t="n">
-        <v>0.01432895660400391</v>
+        <v>0.01805758476257324</v>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>0.355884313583374</v>
+        <v>0.4402391910552979</v>
       </c>
       <c r="V18" t="n">
         <v>1</v>
@@ -3192,18 +3192,18 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.02554917335510254</v>
+        <v>0.03168821334838867</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>0.5263621807098389</v>
+        <v>0.693385124206543</v>
       </c>
       <c r="S19" t="n">
-        <v>0.02554917335510254</v>
+        <v>0.03168821334838867</v>
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>0.5263621807098389</v>
+        <v>0.693385124206543</v>
       </c>
       <c r="V19" t="n">
         <v>1</v>
@@ -3290,7 +3290,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LightGBMXT_FULL</t>
+          <t>CatBoost_r13_FULL</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -3324,10 +3324,10 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.2290960561553603</v>
+        <v>-0.2616329607979647</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4989463117189272</v>
+        <v>0.4366446155217122</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
@@ -3336,18 +3336,18 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.004008054733276367</v>
+        <v>0.003751039505004883</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>0.1817710399627686</v>
+        <v>1.481279850006104</v>
       </c>
       <c r="S20" t="n">
-        <v>0.004008054733276367</v>
+        <v>0.003751039505004883</v>
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>0.1817710399627686</v>
+        <v>1.481279850006104</v>
       </c>
       <c r="V20" t="n">
         <v>1</v>
@@ -3356,7 +3356,7 @@
         <v>1</v>
       </c>
       <c r="X20" t="n">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="Y20" t="n">
         <v>19</v>
@@ -3368,16 +3368,16 @@
         <v>1</v>
       </c>
       <c r="AB20" t="n">
-        <v>380832</v>
+        <v>1771728</v>
       </c>
       <c r="AC20" t="n">
-        <v>380832</v>
+        <v>1771728</v>
       </c>
       <c r="AD20" t="n">
-        <v>380832</v>
+        <v>1771728</v>
       </c>
       <c r="AE20" t="n">
-        <v>380832</v>
+        <v>1771728</v>
       </c>
       <c r="AF20" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>LGBModel</t>
+          <t>CatBoostModel</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr"/>
@@ -3398,12 +3398,12 @@
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.05, 'extra_trees': True, 'num_boost_round': 408}</t>
+          <t>{'iterations': 429, 'learning_rate': 0.017301189655111057, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.3274013177541373, 'max_ctr_complexity': 5, 'one_hot_max_size': 10}</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>{'num_boost_round': 408}</t>
+          <t>{'iterations': 429}</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
@@ -3434,7 +3434,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CatBoost_r13_FULL</t>
+          <t>LightGBMXT_FULL</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -3468,10 +3468,10 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.2616329607979647</v>
+        <v>-0.2290960561553603</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4366446155217122</v>
+        <v>0.4989463117189272</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
@@ -3480,18 +3480,18 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.004008293151855469</v>
+        <v>0.005756378173828125</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>1.133890628814697</v>
+        <v>0.1926605701446533</v>
       </c>
       <c r="S21" t="n">
-        <v>0.004008293151855469</v>
+        <v>0.005756378173828125</v>
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>1.133890628814697</v>
+        <v>0.1926605701446533</v>
       </c>
       <c r="V21" t="n">
         <v>1</v>
@@ -3500,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="Y21" t="n">
         <v>19</v>
@@ -3512,16 +3512,16 @@
         <v>1</v>
       </c>
       <c r="AB21" t="n">
-        <v>1771728</v>
+        <v>380832</v>
       </c>
       <c r="AC21" t="n">
-        <v>1771728</v>
+        <v>380832</v>
       </c>
       <c r="AD21" t="n">
-        <v>1771728</v>
+        <v>380832</v>
       </c>
       <c r="AE21" t="n">
-        <v>1771728</v>
+        <v>380832</v>
       </c>
       <c r="AF21" t="n">
         <v>0</v>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>CatBoostModel</t>
+          <t>LGBModel</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr"/>
@@ -3542,12 +3542,12 @@
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>{'iterations': 429, 'learning_rate': 0.017301189655111057, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 3.3274013177541373, 'max_ctr_complexity': 5, 'one_hot_max_size': 10}</t>
+          <t>{'learning_rate': 0.05, 'extra_trees': True, 'num_boost_round': 408}</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>{'iterations': 429}</t>
+          <t>{'num_boost_round': 408}</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
@@ -3626,22 +3626,22 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.007494211196899414</v>
+        <v>0.006012678146362305</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.002813100814819336</v>
       </c>
       <c r="R22" t="n">
-        <v>1.198912382125854</v>
+        <v>1.718738317489624</v>
       </c>
       <c r="S22" t="n">
-        <v>0.007494211196899414</v>
+        <v>0.006012678146362305</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.002813100814819336</v>
       </c>
       <c r="U22" t="n">
-        <v>1.198912382125854</v>
+        <v>1.718738317489624</v>
       </c>
       <c r="V22" t="n">
         <v>1</v>
@@ -3774,18 +3774,18 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.05130100250244141</v>
+        <v>0.08045649528503418</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
-        <v>0.5159013271331787</v>
+        <v>0.6131777763366699</v>
       </c>
       <c r="S23" t="n">
-        <v>0.05130100250244141</v>
+        <v>0.08045649528503418</v>
       </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>0.5159013271331787</v>
+        <v>0.6131777763366699</v>
       </c>
       <c r="V23" t="n">
         <v>1</v>
@@ -3872,7 +3872,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CatBoost_FULL</t>
+          <t>CatBoost_r69_FULL</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -3882,34 +3882,34 @@
         <v>0.9542857142857143</v>
       </c>
       <c r="D24" t="n">
-        <v>0.90625</v>
+        <v>0.875</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8885714285714286</v>
+        <v>0.8685714285714285</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8693877551020408</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>0.90625</v>
+        <v>0.875</v>
       </c>
       <c r="I24" t="n">
         <v>0.8983516483516483</v>
       </c>
       <c r="J24" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K24" t="n">
         <v>0.8571428571428571</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.231683093487009</v>
+        <v>-0.2969562828872591</v>
       </c>
       <c r="M24" t="n">
-        <v>0.493918271286702</v>
+        <v>0.3712636073937524</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
@@ -3918,18 +3918,18 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.002003669738769531</v>
+        <v>0.004009008407592773</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
-        <v>0.4784204959869385</v>
+        <v>0.1882603168487549</v>
       </c>
       <c r="S24" t="n">
-        <v>0.002003669738769531</v>
+        <v>0.004009008407592773</v>
       </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
-        <v>0.4784204959869385</v>
+        <v>0.1882603168487549</v>
       </c>
       <c r="V24" t="n">
         <v>1</v>
@@ -3938,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="X24" t="n">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="Y24" t="n">
         <v>19</v>
@@ -3950,16 +3950,16 @@
         <v>1</v>
       </c>
       <c r="AB24" t="n">
-        <v>359542</v>
+        <v>129412</v>
       </c>
       <c r="AC24" t="n">
-        <v>359542</v>
+        <v>129412</v>
       </c>
       <c r="AD24" t="n">
-        <v>359542</v>
+        <v>129412</v>
       </c>
       <c r="AE24" t="n">
-        <v>359542</v>
+        <v>129412</v>
       </c>
       <c r="AF24" t="n">
         <v>0</v>
@@ -3980,12 +3980,12 @@
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>{'iterations': 314, 'learning_rate': 0.05, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss'}</t>
+          <t>{'iterations': 197, 'learning_rate': 0.050294288910022224, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 5, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 1.0457098345001241, 'max_ctr_complexity': 5, 'one_hot_max_size': 2}</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>{'iterations': 314}</t>
+          <t>{'iterations': 197}</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
@@ -4016,7 +4016,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CatBoost_r69_FULL</t>
+          <t>CatBoost_FULL</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -4026,34 +4026,34 @@
         <v>0.9542857142857143</v>
       </c>
       <c r="D25" t="n">
-        <v>0.875</v>
+        <v>0.90625</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8685714285714285</v>
+        <v>0.8885714285714286</v>
       </c>
       <c r="F25" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.8693877551020408</v>
       </c>
       <c r="H25" t="n">
-        <v>0.875</v>
+        <v>0.90625</v>
       </c>
       <c r="I25" t="n">
         <v>0.8983516483516483</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="K25" t="n">
         <v>0.8571428571428571</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.2969562828872591</v>
+        <v>-0.231683093487009</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3712636073937524</v>
+        <v>0.493918271286702</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
@@ -4062,18 +4062,18 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.002004146575927734</v>
+        <v>0.004009723663330078</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="n">
-        <v>0.1307468414306641</v>
+        <v>0.6152997016906738</v>
       </c>
       <c r="S25" t="n">
-        <v>0.002004146575927734</v>
+        <v>0.004009723663330078</v>
       </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="n">
-        <v>0.1307468414306641</v>
+        <v>0.6152997016906738</v>
       </c>
       <c r="V25" t="n">
         <v>1</v>
@@ -4082,7 +4082,7 @@
         <v>1</v>
       </c>
       <c r="X25" t="n">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="Y25" t="n">
         <v>19</v>
@@ -4094,16 +4094,16 @@
         <v>1</v>
       </c>
       <c r="AB25" t="n">
-        <v>129412</v>
+        <v>359542</v>
       </c>
       <c r="AC25" t="n">
-        <v>129412</v>
+        <v>359542</v>
       </c>
       <c r="AD25" t="n">
-        <v>129412</v>
+        <v>359542</v>
       </c>
       <c r="AE25" t="n">
-        <v>129412</v>
+        <v>359542</v>
       </c>
       <c r="AF25" t="n">
         <v>0</v>
@@ -4124,12 +4124,12 @@
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>{'iterations': 197, 'learning_rate': 0.050294288910022224, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 5, 'grow_policy': 'SymmetricTree', 'l2_leaf_reg': 1.0457098345001241, 'max_ctr_complexity': 5, 'one_hot_max_size': 2}</t>
+          <t>{'iterations': 314, 'learning_rate': 0.05, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss'}</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>{'iterations': 197}</t>
+          <t>{'iterations': 314}</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
@@ -4208,22 +4208,22 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.006018638610839844</v>
+        <v>0.006011009216308594</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>1.946622371673584</v>
+        <v>2.560774087905884</v>
       </c>
       <c r="S26" t="n">
-        <v>0.006018638610839844</v>
+        <v>0.006011009216308594</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.946622371673584</v>
+        <v>2.560774087905884</v>
       </c>
       <c r="V26" t="n">
         <v>1</v>
@@ -4358,22 +4358,22 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.009763479232788086</v>
+        <v>0.009020805358886719</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>0.0041351318359375</v>
       </c>
       <c r="R27" t="n">
-        <v>0.3401217460632324</v>
+        <v>0.6095256805419922</v>
       </c>
       <c r="S27" t="n">
-        <v>0.009763479232788086</v>
+        <v>0.009020805358886719</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>0.0041351318359375</v>
       </c>
       <c r="U27" t="n">
-        <v>0.3401217460632324</v>
+        <v>0.6095256805419922</v>
       </c>
       <c r="V27" t="n">
         <v>1</v>
@@ -4506,18 +4506,18 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.01200032234191895</v>
+        <v>0.01200270652770996</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="n">
-        <v>0.2267551422119141</v>
+        <v>0.3073196411132812</v>
       </c>
       <c r="S28" t="n">
-        <v>0.01200032234191895</v>
+        <v>0.01200270652770996</v>
       </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="n">
-        <v>0.2267551422119141</v>
+        <v>0.3073196411132812</v>
       </c>
       <c r="V28" t="n">
         <v>1</v>
@@ -4650,18 +4650,18 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.06645750999450684</v>
+        <v>0.0859072208404541</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="n">
-        <v>0.5656397342681885</v>
+        <v>0.7007453441619873</v>
       </c>
       <c r="S29" t="n">
-        <v>0.06645750999450684</v>
+        <v>0.0859072208404541</v>
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>0.5656397342681885</v>
+        <v>0.7007453441619873</v>
       </c>
       <c r="V29" t="n">
         <v>1</v>
@@ -4794,18 +4794,18 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.01205134391784668</v>
+        <v>0.01376819610595703</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
-        <v>0.0916445255279541</v>
+        <v>0.1442797183990479</v>
       </c>
       <c r="S30" t="n">
-        <v>0.01205134391784668</v>
+        <v>0.01376819610595703</v>
       </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>0.0916445255279541</v>
+        <v>0.1442797183990479</v>
       </c>
       <c r="V30" t="n">
         <v>1</v>
@@ -4938,18 +4938,18 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.05473470687866211</v>
+        <v>0.05449628829956055</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
-        <v>0.7983784675598145</v>
+        <v>0.902982234954834</v>
       </c>
       <c r="S31" t="n">
-        <v>0.05473470687866211</v>
+        <v>0.05449628829956055</v>
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>0.7983784675598145</v>
+        <v>0.902982234954834</v>
       </c>
       <c r="V31" t="n">
         <v>1</v>
@@ -5082,18 +5082,18 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.06194376945495605</v>
+        <v>0.08168292045593262</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
-        <v>0.5331602096557617</v>
+        <v>0.6330397129058838</v>
       </c>
       <c r="S32" t="n">
-        <v>0.06194376945495605</v>
+        <v>0.08168292045593262</v>
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
-        <v>0.5331602096557617</v>
+        <v>0.6330397129058838</v>
       </c>
       <c r="V32" t="n">
         <v>1</v>
@@ -5228,22 +5228,22 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.02330493927001953</v>
+        <v>0.01577067375183105</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>0.005759716033935547</v>
       </c>
       <c r="R33" t="n">
-        <v>1.005127429962158</v>
+        <v>1.559098482131958</v>
       </c>
       <c r="S33" t="n">
-        <v>0.02330493927001953</v>
+        <v>0.01577067375183105</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>0.005759716033935547</v>
       </c>
       <c r="U33" t="n">
-        <v>1.005127429962158</v>
+        <v>1.559098482131958</v>
       </c>
       <c r="V33" t="n">
         <v>1</v>
@@ -5378,22 +5378,22 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.02754926681518555</v>
+        <v>0.02475070953369141</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>0.005372762680053711</v>
       </c>
       <c r="R34" t="n">
-        <v>1.34313702583313</v>
+        <v>2.066956996917725</v>
       </c>
       <c r="S34" t="n">
-        <v>0.02754926681518555</v>
+        <v>0.02475070953369141</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>0.005372762680053711</v>
       </c>
       <c r="U34" t="n">
-        <v>1.34313702583313</v>
+        <v>2.066956996917725</v>
       </c>
       <c r="V34" t="n">
         <v>1</v>
@@ -5528,22 +5528,22 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.00400996208190918</v>
+        <v>0.006015777587890625</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.01555037498474121</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.938364505767822</v>
+        <v>2.138408899307251</v>
       </c>
       <c r="S35" t="n">
-        <v>0.00400996208190918</v>
+        <v>0.006015777587890625</v>
       </c>
       <c r="T35" t="n">
-        <v>0.01555037498474121</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.938364505767822</v>
+        <v>2.138408899307251</v>
       </c>
       <c r="V35" t="n">
         <v>1</v>
@@ -5676,18 +5676,18 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>0.003000974655151367</v>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
-        <v>0.5411219596862793</v>
+        <v>0.7232780456542969</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>0.003000974655151367</v>
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="n">
-        <v>0.5411219596862793</v>
+        <v>0.7232780456542969</v>
       </c>
       <c r="V36" t="n">
         <v>1</v>
@@ -5822,22 +5822,22 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.002004861831665039</v>
+        <v>0.004007577896118164</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>0.003006458282470703</v>
       </c>
       <c r="R37" t="n">
-        <v>1.230688810348511</v>
+        <v>1.568449258804321</v>
       </c>
       <c r="S37" t="n">
-        <v>0.002004861831665039</v>
+        <v>0.004007577896118164</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>0.003006458282470703</v>
       </c>
       <c r="U37" t="n">
-        <v>1.230688810348511</v>
+        <v>1.568449258804321</v>
       </c>
       <c r="V37" t="n">
         <v>1</v>
@@ -5972,22 +5972,22 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.004011392593383789</v>
+        <v>0.004010677337646484</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0.638559103012085</v>
+        <v>0.718071460723877</v>
       </c>
       <c r="S38" t="n">
-        <v>0.004011392593383789</v>
+        <v>0.004010677337646484</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.638559103012085</v>
+        <v>0.718071460723877</v>
       </c>
       <c r="V38" t="n">
         <v>1</v>
@@ -6122,22 +6122,22 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.006012201309204102</v>
+        <v>0.005754232406616211</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>0.001999616622924805</v>
       </c>
       <c r="R39" t="n">
-        <v>0.9999635219573975</v>
+        <v>1.368193387985229</v>
       </c>
       <c r="S39" t="n">
-        <v>0.006012201309204102</v>
+        <v>0.005754232406616211</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>0.001999616622924805</v>
       </c>
       <c r="U39" t="n">
-        <v>0.9999635219573975</v>
+        <v>1.368193387985229</v>
       </c>
       <c r="V39" t="n">
         <v>1</v>
@@ -6270,18 +6270,18 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.004898548126220703</v>
+        <v>0.006012201309204102</v>
       </c>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="n">
-        <v>0.1331968307495117</v>
+        <v>0.1983094215393066</v>
       </c>
       <c r="S40" t="n">
-        <v>0.004898548126220703</v>
+        <v>0.006012201309204102</v>
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>0.1331968307495117</v>
+        <v>0.1983094215393066</v>
       </c>
       <c r="V40" t="n">
         <v>1</v>
@@ -6414,18 +6414,18 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.04972386360168457</v>
+        <v>0.05760359764099121</v>
       </c>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="n">
-        <v>0.5103244781494141</v>
+        <v>0.6531186103820801</v>
       </c>
       <c r="S41" t="n">
-        <v>0.04972386360168457</v>
+        <v>0.05760359764099121</v>
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="n">
-        <v>0.5103244781494141</v>
+        <v>0.6531186103820801</v>
       </c>
       <c r="V41" t="n">
         <v>1</v>
@@ -6558,18 +6558,18 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.06951904296875</v>
+        <v>0.08203792572021484</v>
       </c>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="n">
-        <v>0.6438395977020264</v>
+        <v>0.7533445358276367</v>
       </c>
       <c r="S42" t="n">
-        <v>0.06951904296875</v>
+        <v>0.08203792572021484</v>
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="n">
-        <v>0.6438395977020264</v>
+        <v>0.7533445358276367</v>
       </c>
       <c r="V42" t="n">
         <v>1</v>
@@ -6704,22 +6704,22 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.003196477890014648</v>
+        <v>0.002004623413085938</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>0.002007246017456055</v>
       </c>
       <c r="R43" t="n">
-        <v>0.3690235614776611</v>
+        <v>0.5362241268157959</v>
       </c>
       <c r="S43" t="n">
-        <v>0.003196477890014648</v>
+        <v>0.002004623413085938</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>0.002007246017456055</v>
       </c>
       <c r="U43" t="n">
-        <v>0.3690235614776611</v>
+        <v>0.5362241268157959</v>
       </c>
       <c r="V43" t="n">
         <v>1</v>
@@ -6854,22 +6854,22 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.004920721054077148</v>
+        <v>0.006024360656738281</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.01679372787475586</v>
+        <v>0.002951622009277344</v>
       </c>
       <c r="R44" t="n">
-        <v>1.317647933959961</v>
+        <v>1.534706115722656</v>
       </c>
       <c r="S44" t="n">
-        <v>0.004920721054077148</v>
+        <v>0.006024360656738281</v>
       </c>
       <c r="T44" t="n">
-        <v>0.01679372787475586</v>
+        <v>0.002951622009277344</v>
       </c>
       <c r="U44" t="n">
-        <v>1.317647933959961</v>
+        <v>1.534706115722656</v>
       </c>
       <c r="V44" t="n">
         <v>1</v>
@@ -7004,22 +7004,22 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.004011869430541992</v>
+        <v>0.005759477615356445</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.7477798461914062</v>
+        <v>0.991464376449585</v>
       </c>
       <c r="S45" t="n">
-        <v>0.004011869430541992</v>
+        <v>0.005759477615356445</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.7477798461914062</v>
+        <v>0.991464376449585</v>
       </c>
       <c r="V45" t="n">
         <v>1</v>
@@ -7152,18 +7152,18 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.04967379570007324</v>
+        <v>0.0709834098815918</v>
       </c>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="n">
-        <v>0.8242084980010986</v>
+        <v>1.058403491973877</v>
       </c>
       <c r="S46" t="n">
-        <v>0.04967379570007324</v>
+        <v>0.0709834098815918</v>
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="n">
-        <v>0.8242084980010986</v>
+        <v>1.058403491973877</v>
       </c>
       <c r="V46" t="n">
         <v>1</v>
@@ -7298,22 +7298,22 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.004007816314697266</v>
+        <v>0.004051685333251953</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>0.7329421043395996</v>
+        <v>0.8506593704223633</v>
       </c>
       <c r="S47" t="n">
-        <v>0.004007816314697266</v>
+        <v>0.004051685333251953</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>0.7329421043395996</v>
+        <v>0.8506593704223633</v>
       </c>
       <c r="V47" t="n">
         <v>1</v>
@@ -7446,18 +7446,18 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.004014492034912109</v>
+        <v>0.004894733428955078</v>
       </c>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="n">
-        <v>0.6653661727905273</v>
+        <v>0.8122448921203613</v>
       </c>
       <c r="S48" t="n">
-        <v>0.004014492034912109</v>
+        <v>0.004894733428955078</v>
       </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="n">
-        <v>0.6653661727905273</v>
+        <v>0.8122448921203613</v>
       </c>
       <c r="V48" t="n">
         <v>1</v>
@@ -7594,14 +7594,14 @@
       </c>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="n">
-        <v>0.6433680057525635</v>
+        <v>0.9092495441436768</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
       </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="n">
-        <v>0.6433680057525635</v>
+        <v>0.9092495441436768</v>
       </c>
       <c r="V49" t="n">
         <v>1</v>
@@ -7734,18 +7734,18 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.003510951995849609</v>
+        <v>0.01002335548400879</v>
       </c>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="n">
-        <v>0.1269145011901855</v>
+        <v>0.1894400119781494</v>
       </c>
       <c r="S50" t="n">
-        <v>0.003510951995849609</v>
+        <v>0.01002335548400879</v>
       </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="n">
-        <v>0.1269145011901855</v>
+        <v>0.1894400119781494</v>
       </c>
       <c r="V50" t="n">
         <v>1</v>
@@ -7878,18 +7878,18 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.00400853157043457</v>
+        <v>0.001747369766235352</v>
       </c>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="n">
-        <v>0.1467015743255615</v>
+        <v>0.1664586067199707</v>
       </c>
       <c r="S51" t="n">
-        <v>0.00400853157043457</v>
+        <v>0.001747369766235352</v>
       </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="n">
-        <v>0.1467015743255615</v>
+        <v>0.1664586067199707</v>
       </c>
       <c r="V51" t="n">
         <v>1</v>
@@ -8022,18 +8022,18 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.06544971466064453</v>
+        <v>0.07842493057250977</v>
       </c>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="n">
-        <v>0.7173843383789062</v>
+        <v>0.7309825420379639</v>
       </c>
       <c r="S52" t="n">
-        <v>0.06544971466064453</v>
+        <v>0.07842493057250977</v>
       </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="n">
-        <v>0.7173843383789062</v>
+        <v>0.7309825420379639</v>
       </c>
       <c r="V52" t="n">
         <v>1</v>
@@ -8166,18 +8166,18 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0220787525177002</v>
+        <v>0.01399803161621094</v>
       </c>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="n">
-        <v>0.0635979175567627</v>
+        <v>0.08909845352172852</v>
       </c>
       <c r="S53" t="n">
-        <v>0.0220787525177002</v>
+        <v>0.01399803161621094</v>
       </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="n">
-        <v>0.0635979175567627</v>
+        <v>0.08909845352172852</v>
       </c>
       <c r="V53" t="n">
         <v>1</v>
@@ -8312,22 +8312,22 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.006012201309204102</v>
+        <v>0.006363391876220703</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.01635861396789551</v>
+        <v>0.002320051193237305</v>
       </c>
       <c r="R54" t="n">
-        <v>0.7665362358093262</v>
+        <v>0.9808828830718994</v>
       </c>
       <c r="S54" t="n">
-        <v>0.006012201309204102</v>
+        <v>0.006363391876220703</v>
       </c>
       <c r="T54" t="n">
-        <v>0.01635861396789551</v>
+        <v>0.002320051193237305</v>
       </c>
       <c r="U54" t="n">
-        <v>0.7665362358093262</v>
+        <v>0.9808828830718994</v>
       </c>
       <c r="V54" t="n">
         <v>1</v>
@@ -8462,22 +8462,22 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.005488872528076172</v>
+        <v>0.005004644393920898</v>
       </c>
       <c r="Q55" t="n">
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>1.400002002716064</v>
+        <v>1.543797969818115</v>
       </c>
       <c r="S55" t="n">
-        <v>0.005488872528076172</v>
+        <v>0.005004644393920898</v>
       </c>
       <c r="T55" t="n">
         <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>1.400002002716064</v>
+        <v>1.543797969818115</v>
       </c>
       <c r="V55" t="n">
         <v>1</v>
@@ -8612,22 +8612,22 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.002002477645874023</v>
+        <v>0.006072044372558594</v>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>0.007891178131103516</v>
       </c>
       <c r="R56" t="n">
-        <v>0.6166064739227295</v>
+        <v>0.7591118812561035</v>
       </c>
       <c r="S56" t="n">
-        <v>0.002002477645874023</v>
+        <v>0.006072044372558594</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
+        <v>0.007891178131103516</v>
       </c>
       <c r="U56" t="n">
-        <v>0.6166064739227295</v>
+        <v>0.7591118812561035</v>
       </c>
       <c r="V56" t="n">
         <v>1</v>
@@ -8760,18 +8760,18 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.003012657165527344</v>
+        <v>0.004007339477539062</v>
       </c>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="n">
-        <v>0.7429490089416504</v>
+        <v>1.051641941070557</v>
       </c>
       <c r="S57" t="n">
-        <v>0.003012657165527344</v>
+        <v>0.004007339477539062</v>
       </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="n">
-        <v>0.7429490089416504</v>
+        <v>1.051641941070557</v>
       </c>
       <c r="V57" t="n">
         <v>1</v>
@@ -8904,18 +8904,18 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.004009246826171875</v>
+        <v>0.006016731262207031</v>
       </c>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="n">
-        <v>0.2023491859436035</v>
+        <v>0.2458267211914062</v>
       </c>
       <c r="S58" t="n">
-        <v>0.004009246826171875</v>
+        <v>0.006016731262207031</v>
       </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="n">
-        <v>0.2023491859436035</v>
+        <v>0.2458267211914062</v>
       </c>
       <c r="V58" t="n">
         <v>1</v>
@@ -9048,18 +9048,18 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.009767055511474609</v>
+        <v>0.009297609329223633</v>
       </c>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="n">
-        <v>0.1587803363800049</v>
+        <v>0.2149488925933838</v>
       </c>
       <c r="S59" t="n">
-        <v>0.009767055511474609</v>
+        <v>0.009297609329223633</v>
       </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="n">
-        <v>0.1587803363800049</v>
+        <v>0.2149488925933838</v>
       </c>
       <c r="V59" t="n">
         <v>1</v>
@@ -9192,18 +9192,18 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.06730341911315918</v>
+        <v>0.08050990104675293</v>
       </c>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="n">
-        <v>0.8055083751678467</v>
+        <v>0.9280900955200195</v>
       </c>
       <c r="S60" t="n">
-        <v>0.06730341911315918</v>
+        <v>0.08050990104675293</v>
       </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="n">
-        <v>0.8055083751678467</v>
+        <v>0.9280900955200195</v>
       </c>
       <c r="V60" t="n">
         <v>1</v>
@@ -9336,18 +9336,18 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0565333366394043</v>
+        <v>0.06806707382202148</v>
       </c>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="n">
-        <v>0.5102412700653076</v>
+        <v>0.5949671268463135</v>
       </c>
       <c r="S61" t="n">
-        <v>0.0565333366394043</v>
+        <v>0.06806707382202148</v>
       </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="n">
-        <v>0.5102412700653076</v>
+        <v>0.5949671268463135</v>
       </c>
       <c r="V61" t="n">
         <v>1</v>
@@ -9480,18 +9480,18 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.004007816314697266</v>
+        <v>0.005756616592407227</v>
       </c>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="n">
-        <v>0.6778800487518311</v>
+        <v>0.66672682762146</v>
       </c>
       <c r="S62" t="n">
-        <v>0.004007816314697266</v>
+        <v>0.005756616592407227</v>
       </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="n">
-        <v>0.6778800487518311</v>
+        <v>0.66672682762146</v>
       </c>
       <c r="V62" t="n">
         <v>1</v>
@@ -9626,22 +9626,22 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.05605959892272949</v>
+        <v>0.06610465049743652</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.03811073303222656</v>
+        <v>0.03835678100585938</v>
       </c>
       <c r="R63" t="n">
-        <v>0.9522559642791748</v>
+        <v>0.8529565334320068</v>
       </c>
       <c r="S63" t="n">
-        <v>0.05605959892272949</v>
+        <v>0.06610465049743652</v>
       </c>
       <c r="T63" t="n">
-        <v>0.03811073303222656</v>
+        <v>0.03835678100585938</v>
       </c>
       <c r="U63" t="n">
-        <v>0.9522559642791748</v>
+        <v>0.8529565334320068</v>
       </c>
       <c r="V63" t="n">
         <v>1</v>
@@ -9776,22 +9776,22 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.06662893295288086</v>
+        <v>0.06840085983276367</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.03766131401062012</v>
+        <v>0.05381488800048828</v>
       </c>
       <c r="R64" t="n">
-        <v>0.5316867828369141</v>
+        <v>0.6476233005523682</v>
       </c>
       <c r="S64" t="n">
-        <v>0.06662893295288086</v>
+        <v>0.06840085983276367</v>
       </c>
       <c r="T64" t="n">
-        <v>0.03766131401062012</v>
+        <v>0.05381488800048828</v>
       </c>
       <c r="U64" t="n">
-        <v>0.5316867828369141</v>
+        <v>0.6476233005523682</v>
       </c>
       <c r="V64" t="n">
         <v>1</v>
@@ -9926,22 +9926,22 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.06368017196655273</v>
+        <v>0.06742739677429199</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.04081153869628906</v>
+        <v>0.0394289493560791</v>
       </c>
       <c r="R65" t="n">
-        <v>0.715573787689209</v>
+        <v>0.826275110244751</v>
       </c>
       <c r="S65" t="n">
-        <v>0.06368017196655273</v>
+        <v>0.06742739677429199</v>
       </c>
       <c r="T65" t="n">
-        <v>0.04081153869628906</v>
+        <v>0.0394289493560791</v>
       </c>
       <c r="U65" t="n">
-        <v>0.715573787689209</v>
+        <v>0.826275110244751</v>
       </c>
       <c r="V65" t="n">
         <v>1</v>
@@ -10078,14 +10078,14 @@
       </c>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="n">
-        <v>0.1070487499237061</v>
+        <v>0.155519962310791</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
       </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="n">
-        <v>0.1070487499237061</v>
+        <v>0.155519962310791</v>
       </c>
       <c r="V66" t="n">
         <v>1</v>
@@ -10172,44 +10172,44 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>RandomForest_r195_FULL</t>
+          <t>RandomForest_r15_FULL</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>0.8519789734075447</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9028571428571428</v>
+        <v>0.9028571428571429</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9085714285714286</v>
+        <v>0.8885714285714286</v>
       </c>
       <c r="F67" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9085714285714286</v>
+        <v>0.8693877551020408</v>
       </c>
       <c r="H67" t="n">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
       <c r="I67" t="n">
         <v>0.8583797155225725</v>
       </c>
       <c r="J67" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="K67" t="n">
         <v>0.8571428571428571</v>
       </c>
       <c r="L67" t="n">
-        <v>-0.2971188129563903</v>
+        <v>-0.3298921064242345</v>
       </c>
       <c r="M67" t="n">
-        <v>0.3709679432715592</v>
+        <v>0.3123472435162123</v>
       </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
@@ -10218,18 +10218,18 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.05138444900512695</v>
+        <v>0.06511926651000977</v>
       </c>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="n">
-        <v>0.8246529102325439</v>
+        <v>0.861102819442749</v>
       </c>
       <c r="S67" t="n">
-        <v>0.05138444900512695</v>
+        <v>0.06511926651000977</v>
       </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="n">
-        <v>0.8246529102325439</v>
+        <v>0.861102819442749</v>
       </c>
       <c r="V67" t="n">
         <v>1</v>
@@ -10238,7 +10238,7 @@
         <v>1</v>
       </c>
       <c r="X67" t="n">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="Y67" t="n">
         <v>19</v>
@@ -10250,16 +10250,16 @@
         <v>1</v>
       </c>
       <c r="AB67" t="n">
-        <v>1145279</v>
+        <v>845072</v>
       </c>
       <c r="AC67" t="n">
-        <v>1145279</v>
+        <v>845072</v>
       </c>
       <c r="AD67" t="n">
-        <v>1145279</v>
+        <v>845072</v>
       </c>
       <c r="AE67" t="n">
-        <v>1145279</v>
+        <v>845072</v>
       </c>
       <c r="AF67" t="n">
         <v>0</v>
@@ -10280,7 +10280,7 @@
       </c>
       <c r="AK67" t="inlineStr">
         <is>
-          <t>{'n_estimators': 300, 'max_leaf_nodes': 37308, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 0.75, 'min_samples_leaf': 1}</t>
+          <t>{'n_estimators': 300, 'max_leaf_nodes': 36230, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 0.75, 'min_samples_leaf': 3}</t>
         </is>
       </c>
       <c r="AL67" t="inlineStr">
@@ -10316,44 +10316,44 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>RandomForest_r15_FULL</t>
+          <t>RandomForest_r195_FULL</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>0.8519789734075447</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9028571428571429</v>
+        <v>0.9028571428571428</v>
       </c>
       <c r="D68" t="n">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="E68" t="n">
-        <v>0.8885714285714286</v>
+        <v>0.9085714285714286</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G68" t="n">
-        <v>0.8693877551020408</v>
+        <v>0.9085714285714286</v>
       </c>
       <c r="H68" t="n">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
       <c r="I68" t="n">
         <v>0.8583797155225725</v>
       </c>
       <c r="J68" t="n">
-        <v>0.75</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K68" t="n">
         <v>0.8571428571428571</v>
       </c>
       <c r="L68" t="n">
-        <v>-0.3298921064242345</v>
+        <v>-0.2971188129563903</v>
       </c>
       <c r="M68" t="n">
-        <v>0.3123472435162123</v>
+        <v>0.3709679432715592</v>
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
@@ -10362,18 +10362,18 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.06526947021484375</v>
+        <v>0.06881117820739746</v>
       </c>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="n">
-        <v>0.7516074180603027</v>
+        <v>0.9259352684020996</v>
       </c>
       <c r="S68" t="n">
-        <v>0.06526947021484375</v>
+        <v>0.06881117820739746</v>
       </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="n">
-        <v>0.7516074180603027</v>
+        <v>0.9259352684020996</v>
       </c>
       <c r="V68" t="n">
         <v>1</v>
@@ -10382,7 +10382,7 @@
         <v>1</v>
       </c>
       <c r="X68" t="n">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="Y68" t="n">
         <v>19</v>
@@ -10394,16 +10394,16 @@
         <v>1</v>
       </c>
       <c r="AB68" t="n">
-        <v>845072</v>
+        <v>1145279</v>
       </c>
       <c r="AC68" t="n">
-        <v>845072</v>
+        <v>1145279</v>
       </c>
       <c r="AD68" t="n">
-        <v>845072</v>
+        <v>1145279</v>
       </c>
       <c r="AE68" t="n">
-        <v>845072</v>
+        <v>1145279</v>
       </c>
       <c r="AF68" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
       </c>
       <c r="AK68" t="inlineStr">
         <is>
-          <t>{'n_estimators': 300, 'max_leaf_nodes': 36230, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 0.75, 'min_samples_leaf': 3}</t>
+          <t>{'n_estimators': 300, 'max_leaf_nodes': 37308, 'n_jobs': -1, 'random_state': 0, 'bootstrap': True, 'max_features': 0.75, 'min_samples_leaf': 1}</t>
         </is>
       </c>
       <c r="AL68" t="inlineStr">
@@ -10506,18 +10506,18 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.06798601150512695</v>
+        <v>0.0732569694519043</v>
       </c>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="n">
-        <v>0.6434957981109619</v>
+        <v>0.7158644199371338</v>
       </c>
       <c r="S69" t="n">
-        <v>0.06798601150512695</v>
+        <v>0.0732569694519043</v>
       </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="n">
-        <v>0.6434957981109619</v>
+        <v>0.7158644199371338</v>
       </c>
       <c r="V69" t="n">
         <v>1</v>
@@ -10650,18 +10650,18 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.004011392593383789</v>
+        <v>0.003749608993530273</v>
       </c>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="n">
-        <v>0.1558799743652344</v>
+        <v>0.2091386318206787</v>
       </c>
       <c r="S70" t="n">
-        <v>0.004011392593383789</v>
+        <v>0.003749608993530273</v>
       </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="n">
-        <v>0.1558799743652344</v>
+        <v>0.2091386318206787</v>
       </c>
       <c r="V70" t="n">
         <v>1</v>
@@ -10796,22 +10796,22 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.05291008949279785</v>
+        <v>0.065887451171875</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.04125046730041504</v>
+        <v>0.05384540557861328</v>
       </c>
       <c r="R71" t="n">
-        <v>0.5075724124908447</v>
+        <v>0.6043117046356201</v>
       </c>
       <c r="S71" t="n">
-        <v>0.05291008949279785</v>
+        <v>0.065887451171875</v>
       </c>
       <c r="T71" t="n">
-        <v>0.04125046730041504</v>
+        <v>0.05384540557861328</v>
       </c>
       <c r="U71" t="n">
-        <v>0.5075724124908447</v>
+        <v>0.6043117046356201</v>
       </c>
       <c r="V71" t="n">
         <v>1</v>
@@ -10946,22 +10946,22 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.05355429649353027</v>
+        <v>0.07101821899414062</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.08841729164123535</v>
+        <v>0.03870630264282227</v>
       </c>
       <c r="R72" t="n">
-        <v>0.6775541305541992</v>
+        <v>0.6646676063537598</v>
       </c>
       <c r="S72" t="n">
-        <v>0.05355429649353027</v>
+        <v>0.07101821899414062</v>
       </c>
       <c r="T72" t="n">
-        <v>0.08841729164123535</v>
+        <v>0.03870630264282227</v>
       </c>
       <c r="U72" t="n">
-        <v>0.6775541305541992</v>
+        <v>0.6646676063537598</v>
       </c>
       <c r="V72" t="n">
         <v>1</v>
@@ -11096,22 +11096,22 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.002796649932861328</v>
+        <v>0.005408525466918945</v>
       </c>
       <c r="Q73" t="n">
-        <v>0</v>
+        <v>0.00837254524230957</v>
       </c>
       <c r="R73" t="n">
-        <v>1.031331539154053</v>
+        <v>1.415850877761841</v>
       </c>
       <c r="S73" t="n">
-        <v>0.002796649932861328</v>
+        <v>0.005408525466918945</v>
       </c>
       <c r="T73" t="n">
-        <v>0</v>
+        <v>0.00837254524230957</v>
       </c>
       <c r="U73" t="n">
-        <v>1.031331539154053</v>
+        <v>1.415850877761841</v>
       </c>
       <c r="V73" t="n">
         <v>1</v>
@@ -11244,18 +11244,18 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.03043842315673828</v>
+        <v>0.03306722640991211</v>
       </c>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="n">
-        <v>0.2849774360656738</v>
+        <v>0.4097929000854492</v>
       </c>
       <c r="S74" t="n">
-        <v>0.03043842315673828</v>
+        <v>0.03306722640991211</v>
       </c>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="n">
-        <v>0.2849774360656738</v>
+        <v>0.4097929000854492</v>
       </c>
       <c r="V74" t="n">
         <v>1</v>
@@ -11390,22 +11390,22 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.01377129554748535</v>
+        <v>0.01377177238464355</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.01576519012451172</v>
+        <v>0.006822347640991211</v>
       </c>
       <c r="R75" t="n">
-        <v>0.4428679943084717</v>
+        <v>0.6461672782897949</v>
       </c>
       <c r="S75" t="n">
-        <v>0.01377129554748535</v>
+        <v>0.01377177238464355</v>
       </c>
       <c r="T75" t="n">
-        <v>0.01576519012451172</v>
+        <v>0.006822347640991211</v>
       </c>
       <c r="U75" t="n">
-        <v>0.4428679943084717</v>
+        <v>0.6461672782897949</v>
       </c>
       <c r="V75" t="n">
         <v>1</v>
@@ -11540,22 +11540,22 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.06660890579223633</v>
+        <v>0.0709083080291748</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.05385136604309082</v>
+        <v>0.05021309852600098</v>
       </c>
       <c r="R76" t="n">
-        <v>0.7515172958374023</v>
+        <v>0.8645815849304199</v>
       </c>
       <c r="S76" t="n">
-        <v>0.06660890579223633</v>
+        <v>0.0709083080291748</v>
       </c>
       <c r="T76" t="n">
-        <v>0.05385136604309082</v>
+        <v>0.05021309852600098</v>
       </c>
       <c r="U76" t="n">
-        <v>0.7515172958374023</v>
+        <v>0.8645815849304199</v>
       </c>
       <c r="V76" t="n">
         <v>1</v>
@@ -11688,18 +11688,18 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.007053375244140625</v>
+        <v>0</v>
       </c>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="n">
-        <v>0.8311617374420166</v>
+        <v>1.210217952728271</v>
       </c>
       <c r="S77" t="n">
-        <v>0.007053375244140625</v>
+        <v>0</v>
       </c>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="n">
-        <v>0.8311617374420166</v>
+        <v>1.210217952728271</v>
       </c>
       <c r="V77" t="n">
         <v>1</v>
@@ -11832,18 +11832,18 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.01176786422729492</v>
+        <v>0.01371359825134277</v>
       </c>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="n">
-        <v>0.3178505897521973</v>
+        <v>0.4136974811553955</v>
       </c>
       <c r="S78" t="n">
-        <v>0.01176786422729492</v>
+        <v>0.01371359825134277</v>
       </c>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="n">
-        <v>0.3178505897521973</v>
+        <v>0.4136974811553955</v>
       </c>
       <c r="V78" t="n">
         <v>1</v>
@@ -11978,22 +11978,22 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.01579117774963379</v>
+        <v>0.005728960037231445</v>
       </c>
       <c r="Q79" t="n">
-        <v>0</v>
+        <v>0.003149747848510742</v>
       </c>
       <c r="R79" t="n">
-        <v>0.3728494644165039</v>
+        <v>0.5040960311889648</v>
       </c>
       <c r="S79" t="n">
-        <v>0.01579117774963379</v>
+        <v>0.005728960037231445</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>0.003149747848510742</v>
       </c>
       <c r="U79" t="n">
-        <v>0.3728494644165039</v>
+        <v>0.5040960311889648</v>
       </c>
       <c r="V79" t="n">
         <v>1</v>
@@ -12128,22 +12128,22 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.003753662109375</v>
+        <v>0.004006624221801758</v>
       </c>
       <c r="Q80" t="n">
-        <v>0</v>
+        <v>0.003741979598999023</v>
       </c>
       <c r="R80" t="n">
-        <v>0.7377574443817139</v>
+        <v>1.022885084152222</v>
       </c>
       <c r="S80" t="n">
-        <v>0.003753662109375</v>
+        <v>0.004006624221801758</v>
       </c>
       <c r="T80" t="n">
-        <v>0</v>
+        <v>0.003741979598999023</v>
       </c>
       <c r="U80" t="n">
-        <v>0.7377574443817139</v>
+        <v>1.022885084152222</v>
       </c>
       <c r="V80" t="n">
         <v>1</v>
@@ -12276,18 +12276,18 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.3058180809020996</v>
+        <v>0.3590338230133057</v>
       </c>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="n">
-        <v>5.536506652832031</v>
+        <v>7.563143730163574</v>
       </c>
       <c r="S81" t="n">
-        <v>0.002003192901611328</v>
+        <v>0.004007339477539062</v>
       </c>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="n">
-        <v>0.1160461902618408</v>
+        <v>0.1518645286560059</v>
       </c>
       <c r="V81" t="n">
         <v>2</v>
@@ -12357,7 +12357,7 @@
       </c>
       <c r="AN81" t="inlineStr">
         <is>
-          <t>['XGBoost_r98', 'NeuralNetFastAI', 'LightGBM_r130', 'NeuralNetTorch_r30', 'ExtraTrees_r197']</t>
+          <t>['NeuralNetFastAI', 'NeuralNetTorch_r30', 'ExtraTrees_r197', 'XGBoost_r98', 'LightGBM_r130']</t>
         </is>
       </c>
       <c r="AO81" t="inlineStr"/>
@@ -12378,7 +12378,7 @@
       </c>
       <c r="AS81" t="inlineStr">
         <is>
-          <t>['NeuralNetFastAI_FULL', 'LightGBM_r130_FULL', 'NeuralNetTorch_r30_FULL', 'ExtraTrees_r197_FULL', 'XGBoost_r98_FULL']</t>
+          <t>['NeuralNetTorch_r30_FULL', 'XGBoost_r98_FULL', 'ExtraTrees_r197_FULL', 'NeuralNetFastAI_FULL', 'LightGBM_r130_FULL']</t>
         </is>
       </c>
       <c r="AT81" t="inlineStr">
@@ -12438,22 +12438,22 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.004540443420410156</v>
+        <v>0.005010843276977539</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.003029108047485352</v>
+        <v>0.002169609069824219</v>
       </c>
       <c r="R82" t="n">
-        <v>2.57607364654541</v>
+        <v>3.858899593353271</v>
       </c>
       <c r="S82" t="n">
-        <v>0.004540443420410156</v>
+        <v>0.005010843276977539</v>
       </c>
       <c r="T82" t="n">
-        <v>0.003029108047485352</v>
+        <v>0.002169609069824219</v>
       </c>
       <c r="U82" t="n">
-        <v>2.57607364654541</v>
+        <v>3.858899593353271</v>
       </c>
       <c r="V82" t="n">
         <v>1</v>
@@ -12586,18 +12586,18 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.01904726028442383</v>
+        <v>0.01953649520874023</v>
       </c>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="n">
-        <v>0.1351883411407471</v>
+        <v>0.1813094615936279</v>
       </c>
       <c r="S83" t="n">
-        <v>0.01904726028442383</v>
+        <v>0.01953649520874023</v>
       </c>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="n">
-        <v>0.1351883411407471</v>
+        <v>0.1813094615936279</v>
       </c>
       <c r="V83" t="n">
         <v>1</v>
@@ -12730,18 +12730,18 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.06584382057189941</v>
+        <v>0.08058547973632812</v>
       </c>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="n">
-        <v>0.5262606143951416</v>
+        <v>0.6512808799743652</v>
       </c>
       <c r="S84" t="n">
-        <v>0.06584382057189941</v>
+        <v>0.08058547973632812</v>
       </c>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="n">
-        <v>0.5262606143951416</v>
+        <v>0.6512808799743652</v>
       </c>
       <c r="V84" t="n">
         <v>1</v>
@@ -12876,22 +12876,22 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.004012346267700195</v>
+        <v>0.004007339477539062</v>
       </c>
       <c r="Q85" t="n">
-        <v>0</v>
+        <v>0.002000331878662109</v>
       </c>
       <c r="R85" t="n">
-        <v>1.429136991500854</v>
+        <v>1.666518211364746</v>
       </c>
       <c r="S85" t="n">
-        <v>0.004012346267700195</v>
+        <v>0.004007339477539062</v>
       </c>
       <c r="T85" t="n">
-        <v>0</v>
+        <v>0.002000331878662109</v>
       </c>
       <c r="U85" t="n">
-        <v>1.429136991500854</v>
+        <v>1.666518211364746</v>
       </c>
       <c r="V85" t="n">
         <v>1</v>
@@ -13024,18 +13024,18 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.01403427124023438</v>
+        <v>0.01779603958129883</v>
       </c>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="n">
-        <v>0.1425940990447998</v>
+        <v>0.31636643409729</v>
       </c>
       <c r="S86" t="n">
-        <v>0.01403427124023438</v>
+        <v>0.01779603958129883</v>
       </c>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="n">
-        <v>0.1425940990447998</v>
+        <v>0.31636643409729</v>
       </c>
       <c r="V86" t="n">
         <v>1</v>
@@ -13170,22 +13170,22 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.05160760879516602</v>
+        <v>0.06451606750488281</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.03793191909790039</v>
+        <v>0.04024577140808105</v>
       </c>
       <c r="R87" t="n">
-        <v>0.7124660015106201</v>
+        <v>0.8082365989685059</v>
       </c>
       <c r="S87" t="n">
-        <v>0.05160760879516602</v>
+        <v>0.06451606750488281</v>
       </c>
       <c r="T87" t="n">
-        <v>0.03793191909790039</v>
+        <v>0.04024577140808105</v>
       </c>
       <c r="U87" t="n">
-        <v>0.7124660015106201</v>
+        <v>0.8082365989685059</v>
       </c>
       <c r="V87" t="n">
         <v>1</v>
@@ -13320,22 +13320,22 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.009766101837158203</v>
+        <v>0.01001977920532227</v>
       </c>
       <c r="Q88" t="n">
-        <v>0</v>
+        <v>0.004152774810791016</v>
       </c>
       <c r="R88" t="n">
-        <v>0.5518240928649902</v>
+        <v>0.8307890892028809</v>
       </c>
       <c r="S88" t="n">
-        <v>0.009766101837158203</v>
+        <v>0.01001977920532227</v>
       </c>
       <c r="T88" t="n">
-        <v>0</v>
+        <v>0.004152774810791016</v>
       </c>
       <c r="U88" t="n">
-        <v>0.5518240928649902</v>
+        <v>0.8307890892028809</v>
       </c>
       <c r="V88" t="n">
         <v>1</v>
@@ -13470,22 +13470,22 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.01176333427429199</v>
+        <v>0.01410055160522461</v>
       </c>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>0.009809970855712891</v>
       </c>
       <c r="R89" t="n">
-        <v>0.4732315540313721</v>
+        <v>0.7534580230712891</v>
       </c>
       <c r="S89" t="n">
-        <v>0.01176333427429199</v>
+        <v>0.01410055160522461</v>
       </c>
       <c r="T89" t="n">
-        <v>0</v>
+        <v>0.009809970855712891</v>
       </c>
       <c r="U89" t="n">
-        <v>0.4732315540313721</v>
+        <v>0.7534580230712891</v>
       </c>
       <c r="V89" t="n">
         <v>1</v>
@@ -13618,18 +13618,18 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.06360626220703125</v>
+        <v>0.06844806671142578</v>
       </c>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="n">
-        <v>0.7541711330413818</v>
+        <v>0.8897151947021484</v>
       </c>
       <c r="S90" t="n">
-        <v>0.06360626220703125</v>
+        <v>0.06844806671142578</v>
       </c>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="n">
-        <v>0.7541711330413818</v>
+        <v>0.8897151947021484</v>
       </c>
       <c r="V90" t="n">
         <v>1</v>
@@ -13764,22 +13764,22 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0659644603729248</v>
+        <v>0.07256746292114258</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.03974008560180664</v>
+        <v>0.04049181938171387</v>
       </c>
       <c r="R91" t="n">
-        <v>0.6844511032104492</v>
+        <v>0.8353803157806396</v>
       </c>
       <c r="S91" t="n">
-        <v>0.0659644603729248</v>
+        <v>0.07256746292114258</v>
       </c>
       <c r="T91" t="n">
-        <v>0.03974008560180664</v>
+        <v>0.04049181938171387</v>
       </c>
       <c r="U91" t="n">
-        <v>0.6844511032104492</v>
+        <v>0.8353803157806396</v>
       </c>
       <c r="V91" t="n">
         <v>1</v>
@@ -13914,22 +13914,22 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.06764459609985352</v>
+        <v>0.06357645988464355</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.03995776176452637</v>
+        <v>0.0421597957611084</v>
       </c>
       <c r="R92" t="n">
-        <v>0.8587372303009033</v>
+        <v>0.8809621334075928</v>
       </c>
       <c r="S92" t="n">
-        <v>0.06764459609985352</v>
+        <v>0.06357645988464355</v>
       </c>
       <c r="T92" t="n">
-        <v>0.03995776176452637</v>
+        <v>0.0421597957611084</v>
       </c>
       <c r="U92" t="n">
-        <v>0.8587372303009033</v>
+        <v>0.8809621334075928</v>
       </c>
       <c r="V92" t="n">
         <v>1</v>
@@ -14064,22 +14064,22 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.05028605461120605</v>
+        <v>0.05328631401062012</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.04333662986755371</v>
+        <v>0.03895187377929688</v>
       </c>
       <c r="R93" t="n">
-        <v>0.5097882747650146</v>
+        <v>0.5987176895141602</v>
       </c>
       <c r="S93" t="n">
-        <v>0.05028605461120605</v>
+        <v>0.05328631401062012</v>
       </c>
       <c r="T93" t="n">
-        <v>0.04333662986755371</v>
+        <v>0.03895187377929688</v>
       </c>
       <c r="U93" t="n">
-        <v>0.5097882747650146</v>
+        <v>0.5987176895141602</v>
       </c>
       <c r="V93" t="n">
         <v>1</v>
@@ -14214,22 +14214,22 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.06592416763305664</v>
+        <v>0.07387280464172363</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.04109930992126465</v>
+        <v>0.04106640815734863</v>
       </c>
       <c r="R94" t="n">
-        <v>0.8256323337554932</v>
+        <v>0.722787618637085</v>
       </c>
       <c r="S94" t="n">
-        <v>0.06592416763305664</v>
+        <v>0.07387280464172363</v>
       </c>
       <c r="T94" t="n">
-        <v>0.04109930992126465</v>
+        <v>0.04106640815734863</v>
       </c>
       <c r="U94" t="n">
-        <v>0.8256323337554932</v>
+        <v>0.722787618637085</v>
       </c>
       <c r="V94" t="n">
         <v>1</v>
@@ -14362,18 +14362,18 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.01378130912780762</v>
+        <v>0.01403141021728516</v>
       </c>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="n">
-        <v>0.4893660545349121</v>
+        <v>0.5878496170043945</v>
       </c>
       <c r="S95" t="n">
-        <v>0.01378130912780762</v>
+        <v>0.01403141021728516</v>
       </c>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="n">
-        <v>0.4893660545349121</v>
+        <v>0.5878496170043945</v>
       </c>
       <c r="V95" t="n">
         <v>1</v>
@@ -14506,18 +14506,18 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.05249500274658203</v>
+        <v>0.0505368709564209</v>
       </c>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="n">
-        <v>0.4199275970458984</v>
+        <v>0.5666265487670898</v>
       </c>
       <c r="S96" t="n">
-        <v>0.05249500274658203</v>
+        <v>0.0505368709564209</v>
       </c>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="n">
-        <v>0.4199275970458984</v>
+        <v>0.5666265487670898</v>
       </c>
       <c r="V96" t="n">
         <v>1</v>
@@ -14652,22 +14652,22 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.06613826751708984</v>
+        <v>0.06991863250732422</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.03948783874511719</v>
+        <v>0.04031515121459961</v>
       </c>
       <c r="R97" t="n">
-        <v>0.5473158359527588</v>
+        <v>0.6421618461608887</v>
       </c>
       <c r="S97" t="n">
-        <v>0.06613826751708984</v>
+        <v>0.06991863250732422</v>
       </c>
       <c r="T97" t="n">
-        <v>0.03948783874511719</v>
+        <v>0.04031515121459961</v>
       </c>
       <c r="U97" t="n">
-        <v>0.5473158359527588</v>
+        <v>0.6421618461608887</v>
       </c>
       <c r="V97" t="n">
         <v>1</v>
@@ -14800,18 +14800,18 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.009772062301635742</v>
+        <v>0.01176667213439941</v>
       </c>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="n">
-        <v>0.2958300113677979</v>
+        <v>0.3748764991760254</v>
       </c>
       <c r="S98" t="n">
-        <v>0.009772062301635742</v>
+        <v>0.01176667213439941</v>
       </c>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="n">
-        <v>0.2958300113677979</v>
+        <v>0.3748764991760254</v>
       </c>
       <c r="V98" t="n">
         <v>1</v>
@@ -14944,18 +14944,18 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.001985788345336914</v>
+        <v>0.004008054733276367</v>
       </c>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="n">
-        <v>0.3657212257385254</v>
+        <v>0.5162320137023926</v>
       </c>
       <c r="S99" t="n">
-        <v>0.001985788345336914</v>
+        <v>0.004008054733276367</v>
       </c>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="n">
-        <v>0.3657212257385254</v>
+        <v>0.5162320137023926</v>
       </c>
       <c r="V99" t="n">
         <v>1</v>
@@ -15090,22 +15090,22 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.06221580505371094</v>
+        <v>0.06300806999206543</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.003008127212524414</v>
+        <v>0.004012584686279297</v>
       </c>
       <c r="R100" t="n">
-        <v>1.356163024902344</v>
+        <v>1.984488248825073</v>
       </c>
       <c r="S100" t="n">
-        <v>0.06221580505371094</v>
+        <v>0.06300806999206543</v>
       </c>
       <c r="T100" t="n">
-        <v>0.003008127212524414</v>
+        <v>0.004012584686279297</v>
       </c>
       <c r="U100" t="n">
-        <v>1.356163024902344</v>
+        <v>1.984488248825073</v>
       </c>
       <c r="V100" t="n">
         <v>1</v>
@@ -15238,18 +15238,18 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0938575267791748</v>
+        <v>0.09844732284545898</v>
       </c>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="n">
-        <v>0.769885778427124</v>
+        <v>1.15450382232666</v>
       </c>
       <c r="S101" t="n">
-        <v>0.0938575267791748</v>
+        <v>0.09844732284545898</v>
       </c>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="n">
-        <v>0.769885778427124</v>
+        <v>1.15450382232666</v>
       </c>
       <c r="V101" t="n">
         <v>1</v>
@@ -15382,18 +15382,18 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>0.05313873291015625</v>
+        <v>0.05061888694763184</v>
       </c>
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="n">
-        <v>0.4142816066741943</v>
+        <v>0.651517391204834</v>
       </c>
       <c r="S102" t="n">
-        <v>0.05313873291015625</v>
+        <v>0.05061888694763184</v>
       </c>
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="n">
-        <v>0.4142816066741943</v>
+        <v>0.651517391204834</v>
       </c>
       <c r="V102" t="n">
         <v>1</v>
@@ -15528,22 +15528,22 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>0.005709171295166016</v>
+        <v>0.005892753601074219</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.002006053924560547</v>
+        <v>0.001170158386230469</v>
       </c>
       <c r="R103" t="n">
-        <v>0.4011106491088867</v>
+        <v>0.4545185565948486</v>
       </c>
       <c r="S103" t="n">
-        <v>0.005709171295166016</v>
+        <v>0.005892753601074219</v>
       </c>
       <c r="T103" t="n">
-        <v>0.002006053924560547</v>
+        <v>0.001170158386230469</v>
       </c>
       <c r="U103" t="n">
-        <v>0.4011106491088867</v>
+        <v>0.4545185565948486</v>
       </c>
       <c r="V103" t="n">
         <v>1</v>
@@ -15676,18 +15676,18 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>0.01177072525024414</v>
+        <v>0.01378798484802246</v>
       </c>
       <c r="Q104" t="inlineStr"/>
       <c r="R104" t="n">
-        <v>0.2810678482055664</v>
+        <v>0.3640754222869873</v>
       </c>
       <c r="S104" t="n">
-        <v>0.01177072525024414</v>
+        <v>0.01378798484802246</v>
       </c>
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="n">
-        <v>0.2810678482055664</v>
+        <v>0.3640754222869873</v>
       </c>
       <c r="V104" t="n">
         <v>1</v>
@@ -15820,18 +15820,18 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>0.02623224258422852</v>
+        <v>0.02730321884155273</v>
       </c>
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="n">
-        <v>0.2254993915557861</v>
+        <v>0.3632075786590576</v>
       </c>
       <c r="S105" t="n">
-        <v>0.02623224258422852</v>
+        <v>0.02730321884155273</v>
       </c>
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="n">
-        <v>0.2254993915557861</v>
+        <v>0.3632075786590576</v>
       </c>
       <c r="V105" t="n">
         <v>1</v>
@@ -15964,18 +15964,18 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>0.01102161407470703</v>
+        <v>0.01178216934204102</v>
       </c>
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="n">
-        <v>0.06066370010375977</v>
+        <v>0.05246496200561523</v>
       </c>
       <c r="S106" t="n">
-        <v>0.01102161407470703</v>
+        <v>0.01178216934204102</v>
       </c>
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="n">
-        <v>0.06066370010375977</v>
+        <v>0.05246496200561523</v>
       </c>
       <c r="V106" t="n">
         <v>1</v>
@@ -16110,22 +16110,22 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>0.06465649604797363</v>
+        <v>0.07445263862609863</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.03969669342041016</v>
+        <v>0.05129313468933105</v>
       </c>
       <c r="R107" t="n">
-        <v>0.6135280132293701</v>
+        <v>0.673851490020752</v>
       </c>
       <c r="S107" t="n">
-        <v>0.06465649604797363</v>
+        <v>0.07445263862609863</v>
       </c>
       <c r="T107" t="n">
-        <v>0.03969669342041016</v>
+        <v>0.05129313468933105</v>
       </c>
       <c r="U107" t="n">
-        <v>0.6135280132293701</v>
+        <v>0.673851490020752</v>
       </c>
       <c r="V107" t="n">
         <v>1</v>
@@ -16260,22 +16260,22 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>0.01086735725402832</v>
+        <v>0.01002907752990723</v>
       </c>
       <c r="Q108" t="n">
-        <v>0</v>
+        <v>0.006296396255493164</v>
       </c>
       <c r="R108" t="n">
-        <v>0.757366418838501</v>
+        <v>0.9794669151306152</v>
       </c>
       <c r="S108" t="n">
-        <v>0.01086735725402832</v>
+        <v>0.01002907752990723</v>
       </c>
       <c r="T108" t="n">
-        <v>0</v>
+        <v>0.006296396255493164</v>
       </c>
       <c r="U108" t="n">
-        <v>0.757366418838501</v>
+        <v>0.9794669151306152</v>
       </c>
       <c r="V108" t="n">
         <v>1</v>
@@ -16410,22 +16410,22 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>0.06589579582214355</v>
+        <v>0.06976127624511719</v>
       </c>
       <c r="Q109" t="n">
-        <v>0.03915715217590332</v>
+        <v>0.04964566230773926</v>
       </c>
       <c r="R109" t="n">
-        <v>0.5590970516204834</v>
+        <v>0.684884786605835</v>
       </c>
       <c r="S109" t="n">
-        <v>0.06589579582214355</v>
+        <v>0.06976127624511719</v>
       </c>
       <c r="T109" t="n">
-        <v>0.03915715217590332</v>
+        <v>0.04964566230773926</v>
       </c>
       <c r="U109" t="n">
-        <v>0.5590970516204834</v>
+        <v>0.684884786605835</v>
       </c>
       <c r="V109" t="n">
         <v>1</v>
@@ -16560,22 +16560,22 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>0.01202893257141113</v>
+        <v>0.01177525520324707</v>
       </c>
       <c r="Q110" t="n">
-        <v>0</v>
+        <v>0.004397869110107422</v>
       </c>
       <c r="R110" t="n">
-        <v>0.5842752456665039</v>
+        <v>0.7685713768005371</v>
       </c>
       <c r="S110" t="n">
-        <v>0.01202893257141113</v>
+        <v>0.01177525520324707</v>
       </c>
       <c r="T110" t="n">
-        <v>0</v>
+        <v>0.004397869110107422</v>
       </c>
       <c r="U110" t="n">
-        <v>0.5842752456665039</v>
+        <v>0.7685713768005371</v>
       </c>
       <c r="V110" t="n">
         <v>1</v>
@@ -16710,22 +16710,22 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>0.01778340339660645</v>
+        <v>0.03106999397277832</v>
       </c>
       <c r="Q111" t="n">
-        <v>0.002002716064453125</v>
+        <v>0.004562854766845703</v>
       </c>
       <c r="R111" t="n">
-        <v>0.4539480209350586</v>
+        <v>0.6536476612091064</v>
       </c>
       <c r="S111" t="n">
-        <v>0.01778340339660645</v>
+        <v>0.03106999397277832</v>
       </c>
       <c r="T111" t="n">
-        <v>0.002002716064453125</v>
+        <v>0.004562854766845703</v>
       </c>
       <c r="U111" t="n">
-        <v>0.4539480209350586</v>
+        <v>0.6536476612091064</v>
       </c>
       <c r="V111" t="n">
         <v>1</v>
@@ -16860,22 +16860,22 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>0.01202511787414551</v>
+        <v>0.009768486022949219</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.01158928871154785</v>
+        <v>0.0124051570892334</v>
       </c>
       <c r="R112" t="n">
-        <v>0.546436071395874</v>
+        <v>0.8022756576538086</v>
       </c>
       <c r="S112" t="n">
-        <v>0.01202511787414551</v>
+        <v>0.009768486022949219</v>
       </c>
       <c r="T112" t="n">
-        <v>0.01158928871154785</v>
+        <v>0.0124051570892334</v>
       </c>
       <c r="U112" t="n">
-        <v>0.546436071395874</v>
+        <v>0.8022756576538086</v>
       </c>
       <c r="V112" t="n">
         <v>1</v>
@@ -17010,22 +17010,22 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>0.01650094985961914</v>
+        <v>0.01806998252868652</v>
       </c>
       <c r="Q113" t="n">
-        <v>0.001628875732421875</v>
+        <v>0.01205611228942871</v>
       </c>
       <c r="R113" t="n">
-        <v>1.407559633255005</v>
+        <v>2.310996770858765</v>
       </c>
       <c r="S113" t="n">
-        <v>0.01650094985961914</v>
+        <v>0.01806998252868652</v>
       </c>
       <c r="T113" t="n">
-        <v>0.001628875732421875</v>
+        <v>0.01205611228942871</v>
       </c>
       <c r="U113" t="n">
-        <v>1.407559633255005</v>
+        <v>2.310996770858765</v>
       </c>
       <c r="V113" t="n">
         <v>1</v>
@@ -17160,22 +17160,22 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>0.1220271587371826</v>
+        <v>0.1211452484130859</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.002648115158081055</v>
+        <v>0.005163669586181641</v>
       </c>
       <c r="R114" t="n">
-        <v>2.751753091812134</v>
+        <v>4.188429832458496</v>
       </c>
       <c r="S114" t="n">
-        <v>0.1220271587371826</v>
+        <v>0.1211452484130859</v>
       </c>
       <c r="T114" t="n">
-        <v>0.002648115158081055</v>
+        <v>0.005163669586181641</v>
       </c>
       <c r="U114" t="n">
-        <v>2.751753091812134</v>
+        <v>4.188429832458496</v>
       </c>
       <c r="V114" t="n">
         <v>1</v>
@@ -17308,18 +17308,18 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>0.008025169372558594</v>
+        <v>0.009026050567626953</v>
       </c>
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="n">
-        <v>0.06073856353759766</v>
+        <v>0.0741417407989502</v>
       </c>
       <c r="S115" t="n">
-        <v>0.008025169372558594</v>
+        <v>0.009026050567626953</v>
       </c>
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="n">
-        <v>0.06073856353759766</v>
+        <v>0.0741417407989502</v>
       </c>
       <c r="V115" t="n">
         <v>1</v>
@@ -17454,22 +17454,22 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>0.06742215156555176</v>
+        <v>0.0812685489654541</v>
       </c>
       <c r="Q116" t="n">
-        <v>0.05312919616699219</v>
+        <v>0.04146909713745117</v>
       </c>
       <c r="R116" t="n">
-        <v>0.775395393371582</v>
+        <v>0.8485147953033447</v>
       </c>
       <c r="S116" t="n">
-        <v>0.06742215156555176</v>
+        <v>0.0812685489654541</v>
       </c>
       <c r="T116" t="n">
-        <v>0.05312919616699219</v>
+        <v>0.04146909713745117</v>
       </c>
       <c r="U116" t="n">
-        <v>0.775395393371582</v>
+        <v>0.8485147953033447</v>
       </c>
       <c r="V116" t="n">
         <v>1</v>
@@ -17602,18 +17602,18 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>0.1478893756866455</v>
+        <v>0.1436731815338135</v>
       </c>
       <c r="Q117" t="inlineStr"/>
       <c r="R117" t="n">
-        <v>1.462441205978394</v>
+        <v>1.63793420791626</v>
       </c>
       <c r="S117" t="n">
-        <v>0.1478893756866455</v>
+        <v>0.1436731815338135</v>
       </c>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="n">
-        <v>1.462441205978394</v>
+        <v>1.63793420791626</v>
       </c>
       <c r="V117" t="n">
         <v>1</v>
@@ -17748,22 +17748,22 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>0.002521991729736328</v>
+        <v>0.01377272605895996</v>
       </c>
       <c r="Q118" t="n">
-        <v>0.01295876502990723</v>
+        <v>0.004059791564941406</v>
       </c>
       <c r="R118" t="n">
-        <v>1.021530151367188</v>
+        <v>1.245202541351318</v>
       </c>
       <c r="S118" t="n">
-        <v>0.002521991729736328</v>
+        <v>0.01377272605895996</v>
       </c>
       <c r="T118" t="n">
-        <v>0.01295876502990723</v>
+        <v>0.004059791564941406</v>
       </c>
       <c r="U118" t="n">
-        <v>1.021530151367188</v>
+        <v>1.245202541351318</v>
       </c>
       <c r="V118" t="n">
         <v>1</v>
@@ -17898,22 +17898,22 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>0.06870436668395996</v>
+        <v>0.0679175853729248</v>
       </c>
       <c r="Q119" t="n">
-        <v>0.03912544250488281</v>
+        <v>0.03780150413513184</v>
       </c>
       <c r="R119" t="n">
-        <v>0.5093846321105957</v>
+        <v>0.5792405605316162</v>
       </c>
       <c r="S119" t="n">
-        <v>0.06870436668395996</v>
+        <v>0.0679175853729248</v>
       </c>
       <c r="T119" t="n">
-        <v>0.03912544250488281</v>
+        <v>0.03780150413513184</v>
       </c>
       <c r="U119" t="n">
-        <v>0.5093846321105957</v>
+        <v>0.5792405605316162</v>
       </c>
       <c r="V119" t="n">
         <v>1</v>
@@ -18046,18 +18046,18 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>0.06409239768981934</v>
+        <v>0.06832623481750488</v>
       </c>
       <c r="Q120" t="inlineStr"/>
       <c r="R120" t="n">
-        <v>0.5938570499420166</v>
+        <v>0.6400930881500244</v>
       </c>
       <c r="S120" t="n">
-        <v>0.06409239768981934</v>
+        <v>0.06832623481750488</v>
       </c>
       <c r="T120" t="inlineStr"/>
       <c r="U120" t="n">
-        <v>0.5938570499420166</v>
+        <v>0.6400930881500244</v>
       </c>
       <c r="V120" t="n">
         <v>1</v>
@@ -18190,18 +18190,18 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>0.01003241539001465</v>
+        <v>0.01270246505737305</v>
       </c>
       <c r="Q121" t="inlineStr"/>
       <c r="R121" t="n">
-        <v>0.2213406562805176</v>
+        <v>0.2660677433013916</v>
       </c>
       <c r="S121" t="n">
-        <v>0.01003241539001465</v>
+        <v>0.01270246505737305</v>
       </c>
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="n">
-        <v>0.2213406562805176</v>
+        <v>0.2660677433013916</v>
       </c>
       <c r="V121" t="n">
         <v>1</v>
@@ -18334,18 +18334,18 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>0.2051689624786377</v>
+        <v>0.2344310283660889</v>
       </c>
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="n">
-        <v>2.12209415435791</v>
+        <v>3.099918127059937</v>
       </c>
       <c r="S122" t="n">
-        <v>0.2051689624786377</v>
+        <v>0.2344310283660889</v>
       </c>
       <c r="T122" t="inlineStr"/>
       <c r="U122" t="n">
-        <v>2.12209415435791</v>
+        <v>3.099918127059937</v>
       </c>
       <c r="V122" t="n">
         <v>1</v>
@@ -18478,18 +18478,18 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>0.006011247634887695</v>
+        <v>0.007706880569458008</v>
       </c>
       <c r="Q123" t="inlineStr"/>
       <c r="R123" t="n">
-        <v>0.1627612113952637</v>
+        <v>0.2206284999847412</v>
       </c>
       <c r="S123" t="n">
-        <v>0.006011247634887695</v>
+        <v>0.007706880569458008</v>
       </c>
       <c r="T123" t="inlineStr"/>
       <c r="U123" t="n">
-        <v>0.1627612113952637</v>
+        <v>0.2206284999847412</v>
       </c>
       <c r="V123" t="n">
         <v>1</v>
@@ -18624,22 +18624,22 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>0.0137641429901123</v>
+        <v>0.01377463340759277</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.01665425300598145</v>
+        <v>0.009261131286621094</v>
       </c>
       <c r="R124" t="n">
-        <v>0.7623088359832764</v>
+        <v>0.963127613067627</v>
       </c>
       <c r="S124" t="n">
-        <v>0.0137641429901123</v>
+        <v>0.01377463340759277</v>
       </c>
       <c r="T124" t="n">
-        <v>0.01665425300598145</v>
+        <v>0.009261131286621094</v>
       </c>
       <c r="U124" t="n">
-        <v>0.7623088359832764</v>
+        <v>0.963127613067627</v>
       </c>
       <c r="V124" t="n">
         <v>1</v>
@@ -18774,22 +18774,22 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>0.02468228340148926</v>
+        <v>0.02380681037902832</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.002006053924560547</v>
+        <v>0.004006385803222656</v>
       </c>
       <c r="R125" t="n">
-        <v>0.4892518520355225</v>
+        <v>0.761690616607666</v>
       </c>
       <c r="S125" t="n">
-        <v>0.02468228340148926</v>
+        <v>0.02380681037902832</v>
       </c>
       <c r="T125" t="n">
-        <v>0.002006053924560547</v>
+        <v>0.004006385803222656</v>
       </c>
       <c r="U125" t="n">
-        <v>0.4892518520355225</v>
+        <v>0.761690616607666</v>
       </c>
       <c r="V125" t="n">
         <v>1</v>
@@ -18922,18 +18922,18 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>0.01003074645996094</v>
+        <v>0.01176643371582031</v>
       </c>
       <c r="Q126" t="inlineStr"/>
       <c r="R126" t="n">
-        <v>0.06879949569702148</v>
+        <v>0.1281321048736572</v>
       </c>
       <c r="S126" t="n">
-        <v>0.01003074645996094</v>
+        <v>0.01176643371582031</v>
       </c>
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="n">
-        <v>0.06879949569702148</v>
+        <v>0.1281321048736572</v>
       </c>
       <c r="V126" t="n">
         <v>1</v>
@@ -19066,18 +19066,18 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>0.01778721809387207</v>
+        <v>0.01696896553039551</v>
       </c>
       <c r="Q127" t="inlineStr"/>
       <c r="R127" t="n">
-        <v>0.1787264347076416</v>
+        <v>0.3689582347869873</v>
       </c>
       <c r="S127" t="n">
-        <v>0.01778721809387207</v>
+        <v>0.01696896553039551</v>
       </c>
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="n">
-        <v>0.1787264347076416</v>
+        <v>0.3689582347869873</v>
       </c>
       <c r="V127" t="n">
         <v>1</v>
@@ -19210,18 +19210,18 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>0.01474404335021973</v>
+        <v>0.01577973365783691</v>
       </c>
       <c r="Q128" t="inlineStr"/>
       <c r="R128" t="n">
-        <v>0.1292052268981934</v>
+        <v>0.173865795135498</v>
       </c>
       <c r="S128" t="n">
-        <v>0.01474404335021973</v>
+        <v>0.01577973365783691</v>
       </c>
       <c r="T128" t="inlineStr"/>
       <c r="U128" t="n">
-        <v>0.1292052268981934</v>
+        <v>0.173865795135498</v>
       </c>
       <c r="V128" t="n">
         <v>1</v>
@@ -19356,22 +19356,22 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>0.02666687965393066</v>
+        <v>0.02457427978515625</v>
       </c>
       <c r="Q129" t="n">
-        <v>0.00400543212890625</v>
+        <v>0.004007816314697266</v>
       </c>
       <c r="R129" t="n">
-        <v>0.561436653137207</v>
+        <v>0.8865234851837158</v>
       </c>
       <c r="S129" t="n">
-        <v>0.02666687965393066</v>
+        <v>0.02457427978515625</v>
       </c>
       <c r="T129" t="n">
-        <v>0.00400543212890625</v>
+        <v>0.004007816314697266</v>
       </c>
       <c r="U129" t="n">
-        <v>0.561436653137207</v>
+        <v>0.8865234851837158</v>
       </c>
       <c r="V129" t="n">
         <v>1</v>
@@ -19506,22 +19506,22 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>0.03734946250915527</v>
+        <v>0.03732681274414062</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.007790565490722656</v>
+        <v>0.01002168655395508</v>
       </c>
       <c r="R130" t="n">
-        <v>0.7980349063873291</v>
+        <v>1.350723743438721</v>
       </c>
       <c r="S130" t="n">
-        <v>0.03734946250915527</v>
+        <v>0.03732681274414062</v>
       </c>
       <c r="T130" t="n">
-        <v>0.007790565490722656</v>
+        <v>0.01002168655395508</v>
       </c>
       <c r="U130" t="n">
-        <v>0.7980349063873291</v>
+        <v>1.350723743438721</v>
       </c>
       <c r="V130" t="n">
         <v>1</v>
@@ -19654,18 +19654,18 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>0.004259586334228516</v>
+        <v>0.01149964332580566</v>
       </c>
       <c r="Q131" t="inlineStr"/>
       <c r="R131" t="n">
-        <v>0.2477340698242188</v>
+        <v>0.3189256191253662</v>
       </c>
       <c r="S131" t="n">
-        <v>0.004259586334228516</v>
+        <v>0.01149964332580566</v>
       </c>
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="n">
-        <v>0.2477340698242188</v>
+        <v>0.3189256191253662</v>
       </c>
       <c r="V131" t="n">
         <v>1</v>
@@ -19798,18 +19798,18 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>0.01208853721618652</v>
+        <v>0.01377034187316895</v>
       </c>
       <c r="Q132" t="inlineStr"/>
       <c r="R132" t="n">
-        <v>0.9465970993041992</v>
+        <v>1.29199743270874</v>
       </c>
       <c r="S132" t="n">
-        <v>0.01208853721618652</v>
+        <v>0.01377034187316895</v>
       </c>
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="n">
-        <v>0.9465970993041992</v>
+        <v>1.29199743270874</v>
       </c>
       <c r="V132" t="n">
         <v>1</v>
@@ -19942,18 +19942,18 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>0.01177740097045898</v>
+        <v>0.01177525520324707</v>
       </c>
       <c r="Q133" t="inlineStr"/>
       <c r="R133" t="n">
-        <v>0.2475841045379639</v>
+        <v>0.346360445022583</v>
       </c>
       <c r="S133" t="n">
-        <v>0.01177740097045898</v>
+        <v>0.01177525520324707</v>
       </c>
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="n">
-        <v>0.2475841045379639</v>
+        <v>0.346360445022583</v>
       </c>
       <c r="V133" t="n">
         <v>1</v>
@@ -20086,18 +20086,18 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>0.009595632553100586</v>
+        <v>0.009520292282104492</v>
       </c>
       <c r="Q134" t="inlineStr"/>
       <c r="R134" t="n">
-        <v>1.514258623123169</v>
+        <v>1.811700344085693</v>
       </c>
       <c r="S134" t="n">
-        <v>0.009595632553100586</v>
+        <v>0.009520292282104492</v>
       </c>
       <c r="T134" t="inlineStr"/>
       <c r="U134" t="n">
-        <v>1.514258623123169</v>
+        <v>1.811700344085693</v>
       </c>
       <c r="V134" t="n">
         <v>1</v>
@@ -20232,22 +20232,22 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>0.05147552490234375</v>
+        <v>0.05065536499023438</v>
       </c>
       <c r="Q135" t="n">
-        <v>0.0377655029296875</v>
+        <v>0.0388343334197998</v>
       </c>
       <c r="R135" t="n">
-        <v>0.5011529922485352</v>
+        <v>0.6073272228240967</v>
       </c>
       <c r="S135" t="n">
-        <v>0.05147552490234375</v>
+        <v>0.05065536499023438</v>
       </c>
       <c r="T135" t="n">
-        <v>0.0377655029296875</v>
+        <v>0.0388343334197998</v>
       </c>
       <c r="U135" t="n">
-        <v>0.5011529922485352</v>
+        <v>0.6073272228240967</v>
       </c>
       <c r="V135" t="n">
         <v>1</v>
@@ -20382,22 +20382,22 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>0.03991603851318359</v>
+        <v>0.01577091217041016</v>
       </c>
       <c r="Q136" t="n">
-        <v>0.01667404174804688</v>
+        <v>0.01197123527526855</v>
       </c>
       <c r="R136" t="n">
-        <v>2.098353147506714</v>
+        <v>2.969530582427979</v>
       </c>
       <c r="S136" t="n">
-        <v>0.03991603851318359</v>
+        <v>0.01577091217041016</v>
       </c>
       <c r="T136" t="n">
-        <v>0.01667404174804688</v>
+        <v>0.01197123527526855</v>
       </c>
       <c r="U136" t="n">
-        <v>2.098353147506714</v>
+        <v>2.969530582427979</v>
       </c>
       <c r="V136" t="n">
         <v>1</v>
@@ -20532,22 +20532,22 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>0.01376557350158691</v>
+        <v>0.01577425003051758</v>
       </c>
       <c r="Q137" t="n">
-        <v>0.01455330848693848</v>
+        <v>0.01148271560668945</v>
       </c>
       <c r="R137" t="n">
-        <v>2.315237760543823</v>
+        <v>3.171759128570557</v>
       </c>
       <c r="S137" t="n">
-        <v>0.01376557350158691</v>
+        <v>0.01577425003051758</v>
       </c>
       <c r="T137" t="n">
-        <v>0.01455330848693848</v>
+        <v>0.01148271560668945</v>
       </c>
       <c r="U137" t="n">
-        <v>2.315237760543823</v>
+        <v>3.171759128570557</v>
       </c>
       <c r="V137" t="n">
         <v>1</v>
@@ -20680,18 +20680,18 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>0.009547233581542969</v>
+        <v>0.01429486274719238</v>
       </c>
       <c r="Q138" t="inlineStr"/>
       <c r="R138" t="n">
-        <v>0.328237771987915</v>
+        <v>0.4734926223754883</v>
       </c>
       <c r="S138" t="n">
-        <v>0.009547233581542969</v>
+        <v>0.01429486274719238</v>
       </c>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="n">
-        <v>0.328237771987915</v>
+        <v>0.4734926223754883</v>
       </c>
       <c r="V138" t="n">
         <v>1</v>
@@ -20826,22 +20826,22 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>0.06746244430541992</v>
+        <v>0.06510066986083984</v>
       </c>
       <c r="Q139" t="n">
-        <v>0.003512382507324219</v>
+        <v>0.004703283309936523</v>
       </c>
       <c r="R139" t="n">
-        <v>1.489203453063965</v>
+        <v>2.241572618484497</v>
       </c>
       <c r="S139" t="n">
-        <v>0.06746244430541992</v>
+        <v>0.06510066986083984</v>
       </c>
       <c r="T139" t="n">
-        <v>0.003512382507324219</v>
+        <v>0.004703283309936523</v>
       </c>
       <c r="U139" t="n">
-        <v>1.489203453063965</v>
+        <v>2.241572618484497</v>
       </c>
       <c r="V139" t="n">
         <v>1</v>
@@ -20976,22 +20976,22 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>0.01376700401306152</v>
+        <v>0.01777434349060059</v>
       </c>
       <c r="Q140" t="n">
-        <v>0.0004336833953857422</v>
+        <v>0.01002144813537598</v>
       </c>
       <c r="R140" t="n">
-        <v>3.575989723205566</v>
+        <v>4.685454368591309</v>
       </c>
       <c r="S140" t="n">
-        <v>0.01376700401306152</v>
+        <v>0.01777434349060059</v>
       </c>
       <c r="T140" t="n">
-        <v>0.0004336833953857422</v>
+        <v>0.01002144813537598</v>
       </c>
       <c r="U140" t="n">
-        <v>3.575989723205566</v>
+        <v>4.685454368591309</v>
       </c>
       <c r="V140" t="n">
         <v>1</v>
@@ -21124,18 +21124,18 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>0.006009101867675781</v>
+        <v>0.01178193092346191</v>
       </c>
       <c r="Q141" t="inlineStr"/>
       <c r="R141" t="n">
-        <v>0.0505824089050293</v>
+        <v>0.05651712417602539</v>
       </c>
       <c r="S141" t="n">
-        <v>0.006009101867675781</v>
+        <v>0.01178193092346191</v>
       </c>
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="n">
-        <v>0.0505824089050293</v>
+        <v>0.05651712417602539</v>
       </c>
       <c r="V141" t="n">
         <v>1</v>
@@ -21268,18 +21268,18 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>0.009774446487426758</v>
+        <v>0.001413345336914062</v>
       </c>
       <c r="Q142" t="inlineStr"/>
       <c r="R142" t="n">
-        <v>0.4837906360626221</v>
+        <v>0.6301901340484619</v>
       </c>
       <c r="S142" t="n">
-        <v>0.009774446487426758</v>
+        <v>0.001413345336914062</v>
       </c>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="n">
-        <v>0.4837906360626221</v>
+        <v>0.6301901340484619</v>
       </c>
       <c r="V142" t="n">
         <v>1</v>
@@ -21412,18 +21412,18 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>0.01577997207641602</v>
+        <v>0.0177757740020752</v>
       </c>
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="n">
-        <v>1.971381187438965</v>
+        <v>2.675081253051758</v>
       </c>
       <c r="S143" t="n">
-        <v>0.01577997207641602</v>
+        <v>0.0177757740020752</v>
       </c>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="n">
-        <v>1.971381187438965</v>
+        <v>2.675081253051758</v>
       </c>
       <c r="V143" t="n">
         <v>1</v>
@@ -21558,22 +21558,22 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>0.01176810264587402</v>
+        <v>0.01554417610168457</v>
       </c>
       <c r="Q144" t="n">
-        <v>0.008759737014770508</v>
+        <v>0.006018400192260742</v>
       </c>
       <c r="R144" t="n">
-        <v>0.5908911228179932</v>
+        <v>0.6755211353302002</v>
       </c>
       <c r="S144" t="n">
-        <v>0.01176810264587402</v>
+        <v>0.01554417610168457</v>
       </c>
       <c r="T144" t="n">
-        <v>0.008759737014770508</v>
+        <v>0.006018400192260742</v>
       </c>
       <c r="U144" t="n">
-        <v>0.5908911228179932</v>
+        <v>0.6755211353302002</v>
       </c>
       <c r="V144" t="n">
         <v>1</v>
@@ -21706,18 +21706,18 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>0.01354289054870605</v>
+        <v>0.01402878761291504</v>
       </c>
       <c r="Q145" t="inlineStr"/>
       <c r="R145" t="n">
-        <v>0.5197896957397461</v>
+        <v>0.6070482730865479</v>
       </c>
       <c r="S145" t="n">
-        <v>0.01354289054870605</v>
+        <v>0.01402878761291504</v>
       </c>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="n">
-        <v>0.5197896957397461</v>
+        <v>0.6070482730865479</v>
       </c>
       <c r="V145" t="n">
         <v>1</v>
@@ -21852,22 +21852,22 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>0.1947727203369141</v>
+        <v>0.2166996002197266</v>
       </c>
       <c r="Q146" t="n">
-        <v>0.0135190486907959</v>
+        <v>0.01525020599365234</v>
       </c>
       <c r="R146" t="n">
-        <v>5.674145698547363</v>
+        <v>8.269673109054565</v>
       </c>
       <c r="S146" t="n">
-        <v>0.1947727203369141</v>
+        <v>0.2166996002197266</v>
       </c>
       <c r="T146" t="n">
-        <v>0.0135190486907959</v>
+        <v>0.01525020599365234</v>
       </c>
       <c r="U146" t="n">
-        <v>5.674145698547363</v>
+        <v>8.269673109054565</v>
       </c>
       <c r="V146" t="n">
         <v>1</v>
@@ -22002,22 +22002,22 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>0.009340763092041016</v>
+        <v>0.0120236873626709</v>
       </c>
       <c r="Q147" t="n">
-        <v>0.007754802703857422</v>
+        <v>0</v>
       </c>
       <c r="R147" t="n">
-        <v>1.157785177230835</v>
+        <v>1.349973917007446</v>
       </c>
       <c r="S147" t="n">
-        <v>0.009340763092041016</v>
+        <v>0.0120236873626709</v>
       </c>
       <c r="T147" t="n">
-        <v>0.007754802703857422</v>
+        <v>0</v>
       </c>
       <c r="U147" t="n">
-        <v>1.157785177230835</v>
+        <v>1.349973917007446</v>
       </c>
       <c r="V147" t="n">
         <v>1</v>
@@ -22152,22 +22152,22 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>0.0119781494140625</v>
+        <v>0.01182246208190918</v>
       </c>
       <c r="Q148" t="n">
-        <v>0.0009326934814453125</v>
+        <v>0.002007961273193359</v>
       </c>
       <c r="R148" t="n">
-        <v>0.750502347946167</v>
+        <v>1.323070526123047</v>
       </c>
       <c r="S148" t="n">
-        <v>0.0119781494140625</v>
+        <v>0.01182246208190918</v>
       </c>
       <c r="T148" t="n">
-        <v>0.0009326934814453125</v>
+        <v>0.002007961273193359</v>
       </c>
       <c r="U148" t="n">
-        <v>0.750502347946167</v>
+        <v>1.323070526123047</v>
       </c>
       <c r="V148" t="n">
         <v>1</v>
@@ -22300,18 +22300,18 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>0.01202225685119629</v>
+        <v>0.01510000228881836</v>
       </c>
       <c r="Q149" t="inlineStr"/>
       <c r="R149" t="n">
-        <v>0.4693129062652588</v>
+        <v>0.5906999111175537</v>
       </c>
       <c r="S149" t="n">
-        <v>0.01202225685119629</v>
+        <v>0.01510000228881836</v>
       </c>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="n">
-        <v>0.4693129062652588</v>
+        <v>0.5906999111175537</v>
       </c>
       <c r="V149" t="n">
         <v>1</v>
@@ -22446,22 +22446,22 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>0.01579427719116211</v>
+        <v>0.01840710639953613</v>
       </c>
       <c r="Q150" t="n">
-        <v>0.007755279541015625</v>
+        <v>0.002005577087402344</v>
       </c>
       <c r="R150" t="n">
-        <v>0.7682902812957764</v>
+        <v>0.9437487125396729</v>
       </c>
       <c r="S150" t="n">
-        <v>0.01579427719116211</v>
+        <v>0.01840710639953613</v>
       </c>
       <c r="T150" t="n">
-        <v>0.007755279541015625</v>
+        <v>0.002005577087402344</v>
       </c>
       <c r="U150" t="n">
-        <v>0.7682902812957764</v>
+        <v>0.9437487125396729</v>
       </c>
       <c r="V150" t="n">
         <v>1</v>
@@ -22596,22 +22596,22 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>0.009759664535522461</v>
+        <v>0.01330280303955078</v>
       </c>
       <c r="Q151" t="n">
-        <v>0</v>
+        <v>0.00941777229309082</v>
       </c>
       <c r="R151" t="n">
-        <v>1.403465986251831</v>
+        <v>1.862272500991821</v>
       </c>
       <c r="S151" t="n">
-        <v>0.009759664535522461</v>
+        <v>0.01330280303955078</v>
       </c>
       <c r="T151" t="n">
-        <v>0</v>
+        <v>0.00941777229309082</v>
       </c>
       <c r="U151" t="n">
-        <v>1.403465986251831</v>
+        <v>1.862272500991821</v>
       </c>
       <c r="V151" t="n">
         <v>1</v>
@@ -22744,18 +22744,18 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>0.01696395874023438</v>
+        <v>0.01779031753540039</v>
       </c>
       <c r="Q152" t="inlineStr"/>
       <c r="R152" t="n">
-        <v>0.3260278701782227</v>
+        <v>0.4920182228088379</v>
       </c>
       <c r="S152" t="n">
-        <v>0.01696395874023438</v>
+        <v>0.01779031753540039</v>
       </c>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="n">
-        <v>0.3260278701782227</v>
+        <v>0.4920182228088379</v>
       </c>
       <c r="V152" t="n">
         <v>1</v>
@@ -22890,22 +22890,22 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>0.01754403114318848</v>
+        <v>0.01680469512939453</v>
       </c>
       <c r="Q153" t="n">
-        <v>0.01374578475952148</v>
+        <v>0.009202957153320312</v>
       </c>
       <c r="R153" t="n">
-        <v>1.582445621490479</v>
+        <v>2.127330780029297</v>
       </c>
       <c r="S153" t="n">
-        <v>0.01754403114318848</v>
+        <v>0.01680469512939453</v>
       </c>
       <c r="T153" t="n">
-        <v>0.01374578475952148</v>
+        <v>0.009202957153320312</v>
       </c>
       <c r="U153" t="n">
-        <v>1.582445621490479</v>
+        <v>2.127330780029297</v>
       </c>
       <c r="V153" t="n">
         <v>1</v>
@@ -23038,18 +23038,18 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>0.008978128433227539</v>
+        <v>0.01202845573425293</v>
       </c>
       <c r="Q154" t="inlineStr"/>
       <c r="R154" t="n">
-        <v>1.864554643630981</v>
+        <v>2.479323625564575</v>
       </c>
       <c r="S154" t="n">
-        <v>0.008978128433227539</v>
+        <v>0.01202845573425293</v>
       </c>
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="n">
-        <v>1.864554643630981</v>
+        <v>2.479323625564575</v>
       </c>
       <c r="V154" t="n">
         <v>1</v>
@@ -23184,22 +23184,22 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>0.01303720474243164</v>
+        <v>0.01534700393676758</v>
       </c>
       <c r="Q155" t="n">
-        <v>0.001670598983764648</v>
+        <v>0.007349014282226562</v>
       </c>
       <c r="R155" t="n">
-        <v>0.4699440002441406</v>
+        <v>0.5498776435852051</v>
       </c>
       <c r="S155" t="n">
-        <v>0.01303720474243164</v>
+        <v>0.01534700393676758</v>
       </c>
       <c r="T155" t="n">
-        <v>0.001670598983764648</v>
+        <v>0.007349014282226562</v>
       </c>
       <c r="U155" t="n">
-        <v>0.4699440002441406</v>
+        <v>0.5498776435852051</v>
       </c>
       <c r="V155" t="n">
         <v>1</v>
@@ -23332,18 +23332,18 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>0.01378083229064941</v>
+        <v>0.01398897171020508</v>
       </c>
       <c r="Q156" t="inlineStr"/>
       <c r="R156" t="n">
-        <v>0.5041179656982422</v>
+        <v>0.6595897674560547</v>
       </c>
       <c r="S156" t="n">
-        <v>0.01378083229064941</v>
+        <v>0.01398897171020508</v>
       </c>
       <c r="T156" t="inlineStr"/>
       <c r="U156" t="n">
-        <v>0.5041179656982422</v>
+        <v>0.6595897674560547</v>
       </c>
       <c r="V156" t="n">
         <v>1</v>
@@ -23476,18 +23476,18 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>0.0156247615814209</v>
+        <v>0.0216364860534668</v>
       </c>
       <c r="Q157" t="inlineStr"/>
       <c r="R157" t="n">
-        <v>1.81661581993103</v>
+        <v>2.400064706802368</v>
       </c>
       <c r="S157" t="n">
-        <v>0.0156247615814209</v>
+        <v>0.0216364860534668</v>
       </c>
       <c r="T157" t="inlineStr"/>
       <c r="U157" t="n">
-        <v>1.81661581993103</v>
+        <v>2.400064706802368</v>
       </c>
       <c r="V157" t="n">
         <v>1</v>
@@ -23622,22 +23622,22 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>0.01581192016601562</v>
+        <v>0.008806943893432617</v>
       </c>
       <c r="Q158" t="n">
-        <v>0</v>
+        <v>0.006018400192260742</v>
       </c>
       <c r="R158" t="n">
-        <v>0.3332514762878418</v>
+        <v>0.4691619873046875</v>
       </c>
       <c r="S158" t="n">
-        <v>0.01581192016601562</v>
+        <v>0.008806943893432617</v>
       </c>
       <c r="T158" t="n">
-        <v>0</v>
+        <v>0.006018400192260742</v>
       </c>
       <c r="U158" t="n">
-        <v>0.3332514762878418</v>
+        <v>0.4691619873046875</v>
       </c>
       <c r="V158" t="n">
         <v>1</v>
@@ -23770,18 +23770,18 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>0.01578903198242188</v>
+        <v>0.01978874206542969</v>
       </c>
       <c r="Q159" t="inlineStr"/>
       <c r="R159" t="n">
-        <v>0.6674821376800537</v>
+        <v>0.8761806488037109</v>
       </c>
       <c r="S159" t="n">
-        <v>0.01578903198242188</v>
+        <v>0.01978874206542969</v>
       </c>
       <c r="T159" t="inlineStr"/>
       <c r="U159" t="n">
-        <v>0.6674821376800537</v>
+        <v>0.8761806488037109</v>
       </c>
       <c r="V159" t="n">
         <v>1</v>
@@ -23916,22 +23916,22 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>0.004049777984619141</v>
+        <v>0.002004384994506836</v>
       </c>
       <c r="Q160" t="n">
-        <v>0</v>
+        <v>0.004012584686279297</v>
       </c>
       <c r="R160" t="n">
-        <v>0.277254581451416</v>
+        <v>0.4829013347625732</v>
       </c>
       <c r="S160" t="n">
-        <v>0.004049777984619141</v>
+        <v>0.002004384994506836</v>
       </c>
       <c r="T160" t="n">
-        <v>0</v>
+        <v>0.004012584686279297</v>
       </c>
       <c r="U160" t="n">
-        <v>0.277254581451416</v>
+        <v>0.4829013347625732</v>
       </c>
       <c r="V160" t="n">
         <v>1</v>
@@ -24064,18 +24064,18 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>0.006018638610839844</v>
+        <v>0.008002758026123047</v>
       </c>
       <c r="Q161" t="inlineStr"/>
       <c r="R161" t="n">
-        <v>0.08631491661071777</v>
+        <v>0.1196649074554443</v>
       </c>
       <c r="S161" t="n">
-        <v>0.006018638610839844</v>
+        <v>0.008002758026123047</v>
       </c>
       <c r="T161" t="inlineStr"/>
       <c r="U161" t="n">
-        <v>0.08631491661071777</v>
+        <v>0.1196649074554443</v>
       </c>
       <c r="V161" t="n">
         <v>1</v>
@@ -24208,18 +24208,18 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>0.01087641716003418</v>
+        <v>0.007704973220825195</v>
       </c>
       <c r="Q162" t="inlineStr"/>
       <c r="R162" t="n">
-        <v>0.3452279567718506</v>
+        <v>0.4353964328765869</v>
       </c>
       <c r="S162" t="n">
-        <v>0.01087641716003418</v>
+        <v>0.007704973220825195</v>
       </c>
       <c r="T162" t="inlineStr"/>
       <c r="U162" t="n">
-        <v>0.3452279567718506</v>
+        <v>0.4353964328765869</v>
       </c>
       <c r="V162" t="n">
         <v>1</v>
@@ -24354,22 +24354,22 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>0.009766340255737305</v>
+        <v>0.009759902954101562</v>
       </c>
       <c r="Q163" t="n">
-        <v>0.006423711776733398</v>
+        <v>0.006464719772338867</v>
       </c>
       <c r="R163" t="n">
-        <v>0.3263742923736572</v>
+        <v>0.3974862098693848</v>
       </c>
       <c r="S163" t="n">
-        <v>0.009766340255737305</v>
+        <v>0.009759902954101562</v>
       </c>
       <c r="T163" t="n">
-        <v>0.006423711776733398</v>
+        <v>0.006464719772338867</v>
       </c>
       <c r="U163" t="n">
-        <v>0.3263742923736572</v>
+        <v>0.3974862098693848</v>
       </c>
       <c r="V163" t="n">
         <v>1</v>
@@ -24504,22 +24504,22 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>0.008023738861083984</v>
+        <v>0.01001977920532227</v>
       </c>
       <c r="Q164" t="n">
-        <v>0.006018638610839844</v>
+        <v>0.007765293121337891</v>
       </c>
       <c r="R164" t="n">
-        <v>0.2418582439422607</v>
+        <v>0.2844293117523193</v>
       </c>
       <c r="S164" t="n">
-        <v>0.008023738861083984</v>
+        <v>0.01001977920532227</v>
       </c>
       <c r="T164" t="n">
-        <v>0.006018638610839844</v>
+        <v>0.007765293121337891</v>
       </c>
       <c r="U164" t="n">
-        <v>0.2418582439422607</v>
+        <v>0.2844293117523193</v>
       </c>
       <c r="V164" t="n">
         <v>1</v>
@@ -24654,22 +24654,22 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>0.005987405776977539</v>
+        <v>0.006012916564941406</v>
       </c>
       <c r="Q165" t="n">
-        <v>0</v>
+        <v>0.002562046051025391</v>
       </c>
       <c r="R165" t="n">
-        <v>0.3932418823242188</v>
+        <v>0.566187858581543</v>
       </c>
       <c r="S165" t="n">
-        <v>0.005987405776977539</v>
+        <v>0.006012916564941406</v>
       </c>
       <c r="T165" t="n">
-        <v>0</v>
+        <v>0.002562046051025391</v>
       </c>
       <c r="U165" t="n">
-        <v>0.3932418823242188</v>
+        <v>0.566187858581543</v>
       </c>
       <c r="V165" t="n">
         <v>1</v>
@@ -24802,18 +24802,18 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>0.01378607749938965</v>
+        <v>0.01854228973388672</v>
       </c>
       <c r="Q166" t="inlineStr"/>
       <c r="R166" t="n">
-        <v>0.4489567279815674</v>
+        <v>0.6778948307037354</v>
       </c>
       <c r="S166" t="n">
-        <v>0.01378607749938965</v>
+        <v>0.01854228973388672</v>
       </c>
       <c r="T166" t="inlineStr"/>
       <c r="U166" t="n">
-        <v>0.4489567279815674</v>
+        <v>0.6778948307037354</v>
       </c>
       <c r="V166" t="n">
         <v>1</v>
@@ -24946,18 +24946,18 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>0.01404237747192383</v>
+        <v>0.0177605152130127</v>
       </c>
       <c r="Q167" t="inlineStr"/>
       <c r="R167" t="n">
-        <v>0.2205569744110107</v>
+        <v>0.282299280166626</v>
       </c>
       <c r="S167" t="n">
-        <v>0.01404237747192383</v>
+        <v>0.0177605152130127</v>
       </c>
       <c r="T167" t="inlineStr"/>
       <c r="U167" t="n">
-        <v>0.2205569744110107</v>
+        <v>0.282299280166626</v>
       </c>
       <c r="V167" t="n">
         <v>1</v>
@@ -25092,22 +25092,22 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>0.01125669479370117</v>
+        <v>0.01259183883666992</v>
       </c>
       <c r="Q168" t="n">
-        <v>0.01602602005004883</v>
+        <v>0.008417606353759766</v>
       </c>
       <c r="R168" t="n">
-        <v>0.7576620578765869</v>
+        <v>0.9252307415008545</v>
       </c>
       <c r="S168" t="n">
-        <v>0.01125669479370117</v>
+        <v>0.01259183883666992</v>
       </c>
       <c r="T168" t="n">
-        <v>0.01602602005004883</v>
+        <v>0.008417606353759766</v>
       </c>
       <c r="U168" t="n">
-        <v>0.7576620578765869</v>
+        <v>0.9252307415008545</v>
       </c>
       <c r="V168" t="n">
         <v>1</v>
@@ -25242,22 +25242,22 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>0.03260350227355957</v>
+        <v>0.03154659271240234</v>
       </c>
       <c r="Q169" t="n">
-        <v>0.003451347351074219</v>
+        <v>0.004026889801025391</v>
       </c>
       <c r="R169" t="n">
-        <v>0.7152888774871826</v>
+        <v>0.9976880550384521</v>
       </c>
       <c r="S169" t="n">
-        <v>0.03260350227355957</v>
+        <v>0.03154659271240234</v>
       </c>
       <c r="T169" t="n">
-        <v>0.003451347351074219</v>
+        <v>0.004026889801025391</v>
       </c>
       <c r="U169" t="n">
-        <v>0.7152888774871826</v>
+        <v>0.9976880550384521</v>
       </c>
       <c r="V169" t="n">
         <v>1</v>
@@ -25392,22 +25392,22 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>0.01202011108398438</v>
+        <v>0.01577281951904297</v>
       </c>
       <c r="Q170" t="n">
-        <v>0.01701593399047852</v>
+        <v>0.008502960205078125</v>
       </c>
       <c r="R170" t="n">
-        <v>1.481806516647339</v>
+        <v>1.932103157043457</v>
       </c>
       <c r="S170" t="n">
-        <v>0.01202011108398438</v>
+        <v>0.01577281951904297</v>
       </c>
       <c r="T170" t="n">
-        <v>0.01701593399047852</v>
+        <v>0.008502960205078125</v>
       </c>
       <c r="U170" t="n">
-        <v>1.481806516647339</v>
+        <v>1.932103157043457</v>
       </c>
       <c r="V170" t="n">
         <v>1</v>
@@ -25542,22 +25542,22 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>0.01303315162658691</v>
+        <v>0.01203393936157227</v>
       </c>
       <c r="Q171" t="n">
-        <v>0.005668163299560547</v>
+        <v>0.01845598220825195</v>
       </c>
       <c r="R171" t="n">
-        <v>0.8887228965759277</v>
+        <v>1.286612987518311</v>
       </c>
       <c r="S171" t="n">
-        <v>0.01303315162658691</v>
+        <v>0.01203393936157227</v>
       </c>
       <c r="T171" t="n">
-        <v>0.005668163299560547</v>
+        <v>0.01845598220825195</v>
       </c>
       <c r="U171" t="n">
-        <v>0.8887228965759277</v>
+        <v>1.286612987518311</v>
       </c>
       <c r="V171" t="n">
         <v>1</v>
@@ -25690,18 +25690,18 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>0.01376652717590332</v>
+        <v>0.01378250122070312</v>
       </c>
       <c r="Q172" t="inlineStr"/>
       <c r="R172" t="n">
-        <v>1.057000160217285</v>
+        <v>1.449118614196777</v>
       </c>
       <c r="S172" t="n">
-        <v>0.01376652717590332</v>
+        <v>0.01378250122070312</v>
       </c>
       <c r="T172" t="inlineStr"/>
       <c r="U172" t="n">
-        <v>1.057000160217285</v>
+        <v>1.449118614196777</v>
       </c>
       <c r="V172" t="n">
         <v>1</v>
@@ -25834,18 +25834,18 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>0.01278233528137207</v>
+        <v>0.0177919864654541</v>
       </c>
       <c r="Q173" t="inlineStr"/>
       <c r="R173" t="n">
-        <v>0.379610538482666</v>
+        <v>0.489438533782959</v>
       </c>
       <c r="S173" t="n">
-        <v>0.01278233528137207</v>
+        <v>0.0177919864654541</v>
       </c>
       <c r="T173" t="inlineStr"/>
       <c r="U173" t="n">
-        <v>0.379610538482666</v>
+        <v>0.489438533782959</v>
       </c>
       <c r="V173" t="n">
         <v>1</v>
@@ -25978,18 +25978,18 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>0.006015300750732422</v>
+        <v>0.008014917373657227</v>
       </c>
       <c r="Q174" t="inlineStr"/>
       <c r="R174" t="n">
-        <v>0.1932389736175537</v>
+        <v>0.2346971035003662</v>
       </c>
       <c r="S174" t="n">
-        <v>0.006015300750732422</v>
+        <v>0.008014917373657227</v>
       </c>
       <c r="T174" t="inlineStr"/>
       <c r="U174" t="n">
-        <v>0.1932389736175537</v>
+        <v>0.2346971035003662</v>
       </c>
       <c r="V174" t="n">
         <v>1</v>
@@ -26122,18 +26122,18 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>0.008018970489501953</v>
+        <v>0.00916290283203125</v>
       </c>
       <c r="Q175" t="inlineStr"/>
       <c r="R175" t="n">
-        <v>0.2296345233917236</v>
+        <v>0.2899589538574219</v>
       </c>
       <c r="S175" t="n">
-        <v>0.008018970489501953</v>
+        <v>0.00916290283203125</v>
       </c>
       <c r="T175" t="inlineStr"/>
       <c r="U175" t="n">
-        <v>0.2296345233917236</v>
+        <v>0.2899589538574219</v>
       </c>
       <c r="V175" t="n">
         <v>1</v>
@@ -26268,22 +26268,22 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>0.009030818939208984</v>
+        <v>0.009770870208740234</v>
       </c>
       <c r="Q176" t="n">
-        <v>0.01577877998352051</v>
+        <v>0.00801396369934082</v>
       </c>
       <c r="R176" t="n">
-        <v>0.3421103954315186</v>
+        <v>0.4075207710266113</v>
       </c>
       <c r="S176" t="n">
-        <v>0.009030818939208984</v>
+        <v>0.009770870208740234</v>
       </c>
       <c r="T176" t="n">
-        <v>0.01577877998352051</v>
+        <v>0.00801396369934082</v>
       </c>
       <c r="U176" t="n">
-        <v>0.3421103954315186</v>
+        <v>0.4075207710266113</v>
       </c>
       <c r="V176" t="n">
         <v>1</v>
@@ -26418,22 +26418,22 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>0.1808547973632812</v>
+        <v>0.202953577041626</v>
       </c>
       <c r="Q177" t="n">
-        <v>0.006011009216308594</v>
+        <v>0.006013393402099609</v>
       </c>
       <c r="R177" t="n">
-        <v>4.761284589767456</v>
+        <v>6.417505502700806</v>
       </c>
       <c r="S177" t="n">
-        <v>0.1808547973632812</v>
+        <v>0.202953577041626</v>
       </c>
       <c r="T177" t="n">
-        <v>0.006011009216308594</v>
+        <v>0.006013393402099609</v>
       </c>
       <c r="U177" t="n">
-        <v>4.761284589767456</v>
+        <v>6.417505502700806</v>
       </c>
       <c r="V177" t="n">
         <v>1</v>
@@ -26568,22 +26568,22 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>0.2992064952850342</v>
+        <v>0.3255100250244141</v>
       </c>
       <c r="Q178" t="n">
-        <v>0.08954930305480957</v>
+        <v>0.08030509948730469</v>
       </c>
       <c r="R178" t="n">
-        <v>12.0466992855072</v>
+        <v>16.95346903800964</v>
       </c>
       <c r="S178" t="n">
-        <v>0.004007816314697266</v>
+        <v>0.004012823104858398</v>
       </c>
       <c r="T178" t="n">
-        <v>0</v>
+        <v>0.002007961273193359</v>
       </c>
       <c r="U178" t="n">
-        <v>0.1160461902618408</v>
+        <v>0.1518645286560059</v>
       </c>
       <c r="V178" t="n">
         <v>2</v>
@@ -26653,7 +26653,7 @@
       </c>
       <c r="AN178" t="inlineStr">
         <is>
-          <t>['XGBoost_r98', 'NeuralNetFastAI', 'LightGBM_r130', 'NeuralNetTorch_r30', 'ExtraTrees_r197']</t>
+          <t>['NeuralNetFastAI', 'NeuralNetTorch_r30', 'ExtraTrees_r197', 'XGBoost_r98', 'LightGBM_r130']</t>
         </is>
       </c>
       <c r="AO178" t="inlineStr"/>
@@ -26674,7 +26674,7 @@
       </c>
       <c r="AS178" t="inlineStr">
         <is>
-          <t>['XGBoost_r98', 'NeuralNetFastAI', 'LightGBM_r130', 'NeuralNetTorch_r30', 'ExtraTrees_r197']</t>
+          <t>['NeuralNetFastAI', 'NeuralNetTorch_r30', 'ExtraTrees_r197', 'XGBoost_r98', 'LightGBM_r130']</t>
         </is>
       </c>
       <c r="AT178" t="inlineStr">
@@ -26732,18 +26732,18 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>0.009766817092895508</v>
+        <v>0.01377248764038086</v>
       </c>
       <c r="Q179" t="inlineStr"/>
       <c r="R179" t="n">
-        <v>0.7090516090393066</v>
+        <v>0.877854585647583</v>
       </c>
       <c r="S179" t="n">
-        <v>0.009766817092895508</v>
+        <v>0.01377248764038086</v>
       </c>
       <c r="T179" t="inlineStr"/>
       <c r="U179" t="n">
-        <v>0.7090516090393066</v>
+        <v>0.877854585647583</v>
       </c>
       <c r="V179" t="n">
         <v>1</v>
@@ -26876,18 +26876,18 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>0.06638050079345703</v>
+        <v>0.07235407829284668</v>
       </c>
       <c r="Q180" t="inlineStr"/>
       <c r="R180" t="n">
-        <v>0.5794310569763184</v>
+        <v>0.6499948501586914</v>
       </c>
       <c r="S180" t="n">
-        <v>0.06638050079345703</v>
+        <v>0.07235407829284668</v>
       </c>
       <c r="T180" t="inlineStr"/>
       <c r="U180" t="n">
-        <v>0.5794310569763184</v>
+        <v>0.6499948501586914</v>
       </c>
       <c r="V180" t="n">
         <v>1</v>
@@ -27022,22 +27022,22 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>0.009853363037109375</v>
+        <v>0.01103043556213379</v>
       </c>
       <c r="Q181" t="n">
-        <v>0.0166630744934082</v>
+        <v>0.01001977920532227</v>
       </c>
       <c r="R181" t="n">
-        <v>1.699876308441162</v>
+        <v>2.430528879165649</v>
       </c>
       <c r="S181" t="n">
-        <v>0.009853363037109375</v>
+        <v>0.01103043556213379</v>
       </c>
       <c r="T181" t="n">
-        <v>0.0166630744934082</v>
+        <v>0.01001977920532227</v>
       </c>
       <c r="U181" t="n">
-        <v>1.699876308441162</v>
+        <v>2.430528879165649</v>
       </c>
       <c r="V181" t="n">
         <v>1</v>
@@ -27170,18 +27170,18 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>0.01025819778442383</v>
+        <v>0.01194238662719727</v>
       </c>
       <c r="Q182" t="inlineStr"/>
       <c r="R182" t="n">
-        <v>0.08883047103881836</v>
+        <v>0.1120126247406006</v>
       </c>
       <c r="S182" t="n">
-        <v>0.01025819778442383</v>
+        <v>0.01194238662719727</v>
       </c>
       <c r="T182" t="inlineStr"/>
       <c r="U182" t="n">
-        <v>0.08883047103881836</v>
+        <v>0.1120126247406006</v>
       </c>
       <c r="V182" t="n">
         <v>1</v>
@@ -27314,18 +27314,18 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>0.01377344131469727</v>
+        <v>0.01726746559143066</v>
       </c>
       <c r="Q183" t="inlineStr"/>
       <c r="R183" t="n">
-        <v>1.812111139297485</v>
+        <v>2.450997829437256</v>
       </c>
       <c r="S183" t="n">
-        <v>0.01377344131469727</v>
+        <v>0.01726746559143066</v>
       </c>
       <c r="T183" t="inlineStr"/>
       <c r="U183" t="n">
-        <v>1.812111139297485</v>
+        <v>2.450997829437256</v>
       </c>
       <c r="V183" t="n">
         <v>1</v>
@@ -27458,18 +27458,18 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>0.01353907585144043</v>
+        <v>0.01377010345458984</v>
       </c>
       <c r="Q184" t="inlineStr"/>
       <c r="R184" t="n">
-        <v>0.1172711849212646</v>
+        <v>0.1546452045440674</v>
       </c>
       <c r="S184" t="n">
-        <v>0.01353907585144043</v>
+        <v>0.01377010345458984</v>
       </c>
       <c r="T184" t="inlineStr"/>
       <c r="U184" t="n">
-        <v>0.1172711849212646</v>
+        <v>0.1546452045440674</v>
       </c>
       <c r="V184" t="n">
         <v>1</v>
@@ -27604,22 +27604,22 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>0.01379156112670898</v>
+        <v>0.01376581192016602</v>
       </c>
       <c r="Q185" t="n">
-        <v>0.01921319961547852</v>
+        <v>0.001149654388427734</v>
       </c>
       <c r="R185" t="n">
-        <v>1.686679840087891</v>
+        <v>2.298056840896606</v>
       </c>
       <c r="S185" t="n">
-        <v>0.01379156112670898</v>
+        <v>0.01376581192016602</v>
       </c>
       <c r="T185" t="n">
-        <v>0.01921319961547852</v>
+        <v>0.001149654388427734</v>
       </c>
       <c r="U185" t="n">
-        <v>1.686679840087891</v>
+        <v>2.298056840896606</v>
       </c>
       <c r="V185" t="n">
         <v>1</v>
@@ -27754,22 +27754,22 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>0.01360535621643066</v>
+        <v>0.01376843452453613</v>
       </c>
       <c r="Q186" t="n">
-        <v>0.01723194122314453</v>
+        <v>0.01060867309570312</v>
       </c>
       <c r="R186" t="n">
-        <v>1.113399028778076</v>
+        <v>1.637393951416016</v>
       </c>
       <c r="S186" t="n">
-        <v>0.01360535621643066</v>
+        <v>0.01376843452453613</v>
       </c>
       <c r="T186" t="n">
-        <v>0.01723194122314453</v>
+        <v>0.01060867309570312</v>
       </c>
       <c r="U186" t="n">
-        <v>1.113399028778076</v>
+        <v>1.637393951416016</v>
       </c>
       <c r="V186" t="n">
         <v>1</v>
@@ -27904,22 +27904,22 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>0</v>
+        <v>0.01302719116210938</v>
       </c>
       <c r="Q187" t="n">
-        <v>0</v>
+        <v>0.007919788360595703</v>
       </c>
       <c r="R187" t="n">
-        <v>1.218283176422119</v>
+        <v>1.450453281402588</v>
       </c>
       <c r="S187" t="n">
-        <v>0</v>
+        <v>0.01302719116210938</v>
       </c>
       <c r="T187" t="n">
-        <v>0</v>
+        <v>0.007919788360595703</v>
       </c>
       <c r="U187" t="n">
-        <v>1.218283176422119</v>
+        <v>1.450453281402588</v>
       </c>
       <c r="V187" t="n">
         <v>1</v>
@@ -28054,22 +28054,22 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>0.01302313804626465</v>
+        <v>0.01403045654296875</v>
       </c>
       <c r="Q188" t="n">
-        <v>0</v>
+        <v>0.004283905029296875</v>
       </c>
       <c r="R188" t="n">
-        <v>0.5135533809661865</v>
+        <v>0.6306765079498291</v>
       </c>
       <c r="S188" t="n">
-        <v>0.01302313804626465</v>
+        <v>0.01403045654296875</v>
       </c>
       <c r="T188" t="n">
-        <v>0</v>
+        <v>0.004283905029296875</v>
       </c>
       <c r="U188" t="n">
-        <v>0.5135533809661865</v>
+        <v>0.6306765079498291</v>
       </c>
       <c r="V188" t="n">
         <v>1</v>
@@ -28204,22 +28204,22 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>0.01121854782104492</v>
+        <v>0</v>
       </c>
       <c r="Q189" t="n">
-        <v>0.02046346664428711</v>
+        <v>0.01033473014831543</v>
       </c>
       <c r="R189" t="n">
-        <v>1.455137968063354</v>
+        <v>2.338330745697021</v>
       </c>
       <c r="S189" t="n">
-        <v>0.01121854782104492</v>
+        <v>0</v>
       </c>
       <c r="T189" t="n">
-        <v>0.02046346664428711</v>
+        <v>0.01033473014831543</v>
       </c>
       <c r="U189" t="n">
-        <v>1.455137968063354</v>
+        <v>2.338330745697021</v>
       </c>
       <c r="V189" t="n">
         <v>1</v>
@@ -28352,18 +28352,18 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>0.0134894847869873</v>
+        <v>0.01554179191589355</v>
       </c>
       <c r="Q190" t="inlineStr"/>
       <c r="R190" t="n">
-        <v>0.2611849308013916</v>
+        <v>0.3418474197387695</v>
       </c>
       <c r="S190" t="n">
-        <v>0.0134894847869873</v>
+        <v>0.01554179191589355</v>
       </c>
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="n">
-        <v>0.2611849308013916</v>
+        <v>0.3418474197387695</v>
       </c>
       <c r="V190" t="n">
         <v>1</v>
@@ -28496,18 +28496,18 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>0.01302456855773926</v>
+        <v>0.01376938819885254</v>
       </c>
       <c r="Q191" t="inlineStr"/>
       <c r="R191" t="n">
-        <v>0.3460009098052979</v>
+        <v>0.4538037776947021</v>
       </c>
       <c r="S191" t="n">
-        <v>0.01302456855773926</v>
+        <v>0.01376938819885254</v>
       </c>
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="n">
-        <v>0.3460009098052979</v>
+        <v>0.4538037776947021</v>
       </c>
       <c r="V191" t="n">
         <v>1</v>
@@ -28640,18 +28640,18 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>0.01336407661437988</v>
+        <v>0.01403450965881348</v>
       </c>
       <c r="Q192" t="inlineStr"/>
       <c r="R192" t="n">
-        <v>0.8506407737731934</v>
+        <v>1.092392683029175</v>
       </c>
       <c r="S192" t="n">
-        <v>0.01336407661437988</v>
+        <v>0.01403450965881348</v>
       </c>
       <c r="T192" t="inlineStr"/>
       <c r="U192" t="n">
-        <v>0.8506407737731934</v>
+        <v>1.092392683029175</v>
       </c>
       <c r="V192" t="n">
         <v>1</v>
@@ -28786,22 +28786,22 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>0.01352524757385254</v>
+        <v>0.01378440856933594</v>
       </c>
       <c r="Q193" t="n">
-        <v>0</v>
+        <v>0.01099753379821777</v>
       </c>
       <c r="R193" t="n">
-        <v>2.331729173660278</v>
+        <v>2.754365205764771</v>
       </c>
       <c r="S193" t="n">
-        <v>0.01352524757385254</v>
+        <v>0.01378440856933594</v>
       </c>
       <c r="T193" t="n">
-        <v>0</v>
+        <v>0.01099753379821777</v>
       </c>
       <c r="U193" t="n">
-        <v>2.331729173660278</v>
+        <v>2.754365205764771</v>
       </c>
       <c r="V193" t="n">
         <v>1</v>
@@ -28936,22 +28936,22 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>0.01069068908691406</v>
+        <v>0.01195716857910156</v>
       </c>
       <c r="Q194" t="n">
-        <v>0.007753849029541016</v>
+        <v>0.01654624938964844</v>
       </c>
       <c r="R194" t="n">
-        <v>1.725954532623291</v>
+        <v>2.289779186248779</v>
       </c>
       <c r="S194" t="n">
-        <v>0.01069068908691406</v>
+        <v>0.01195716857910156</v>
       </c>
       <c r="T194" t="n">
-        <v>0.007753849029541016</v>
+        <v>0.01654624938964844</v>
       </c>
       <c r="U194" t="n">
-        <v>1.725954532623291</v>
+        <v>2.289779186248779</v>
       </c>
       <c r="V194" t="n">
         <v>1</v>
@@ -29086,22 +29086,22 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>0.01378273963928223</v>
+        <v>0.01377725601196289</v>
       </c>
       <c r="Q195" t="n">
-        <v>0</v>
+        <v>0.008014440536499023</v>
       </c>
       <c r="R195" t="n">
-        <v>2.253848314285278</v>
+        <v>2.987931489944458</v>
       </c>
       <c r="S195" t="n">
-        <v>0.01378273963928223</v>
+        <v>0.01377725601196289</v>
       </c>
       <c r="T195" t="n">
-        <v>0</v>
+        <v>0.008014440536499023</v>
       </c>
       <c r="U195" t="n">
-        <v>2.253848314285278</v>
+        <v>2.987931489944458</v>
       </c>
       <c r="V195" t="n">
         <v>1</v>
@@ -29236,22 +29236,22 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>0.01001977920532227</v>
+        <v>0.0117652416229248</v>
       </c>
       <c r="Q196" t="n">
-        <v>0.0003824234008789062</v>
+        <v>0.008353471755981445</v>
       </c>
       <c r="R196" t="n">
-        <v>0.3071727752685547</v>
+        <v>0.4224765300750732</v>
       </c>
       <c r="S196" t="n">
-        <v>0.01001977920532227</v>
+        <v>0.0117652416229248</v>
       </c>
       <c r="T196" t="n">
-        <v>0.0003824234008789062</v>
+        <v>0.008353471755981445</v>
       </c>
       <c r="U196" t="n">
-        <v>0.3071727752685547</v>
+        <v>0.4224765300750732</v>
       </c>
       <c r="V196" t="n">
         <v>1</v>
@@ -29386,22 +29386,22 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>0.001317977905273438</v>
+        <v>0.01503586769104004</v>
       </c>
       <c r="Q197" t="n">
-        <v>0.02045249938964844</v>
+        <v>0.008011817932128906</v>
       </c>
       <c r="R197" t="n">
-        <v>2.1878662109375</v>
+        <v>2.802811622619629</v>
       </c>
       <c r="S197" t="n">
-        <v>0.001317977905273438</v>
+        <v>0.01503586769104004</v>
       </c>
       <c r="T197" t="n">
-        <v>0.02045249938964844</v>
+        <v>0.008011817932128906</v>
       </c>
       <c r="U197" t="n">
-        <v>2.1878662109375</v>
+        <v>2.802811622619629</v>
       </c>
       <c r="V197" t="n">
         <v>1</v>
@@ -29536,22 +29536,22 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>0.01378297805786133</v>
+        <v>0.01560330390930176</v>
       </c>
       <c r="Q198" t="n">
-        <v>0</v>
+        <v>0.007315874099731445</v>
       </c>
       <c r="R198" t="n">
-        <v>0.3861558437347412</v>
+        <v>0.4633936882019043</v>
       </c>
       <c r="S198" t="n">
-        <v>0.01378297805786133</v>
+        <v>0.01560330390930176</v>
       </c>
       <c r="T198" t="n">
-        <v>0</v>
+        <v>0.007315874099731445</v>
       </c>
       <c r="U198" t="n">
-        <v>0.3861558437347412</v>
+        <v>0.4633936882019043</v>
       </c>
       <c r="V198" t="n">
         <v>1</v>
@@ -29686,22 +29686,22 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>0.01378393173217773</v>
+        <v>0.01577138900756836</v>
       </c>
       <c r="Q199" t="n">
         <v>0</v>
       </c>
       <c r="R199" t="n">
-        <v>1.381993055343628</v>
+        <v>1.90212345123291</v>
       </c>
       <c r="S199" t="n">
-        <v>0.01378393173217773</v>
+        <v>0.01577138900756836</v>
       </c>
       <c r="T199" t="n">
         <v>0</v>
       </c>
       <c r="U199" t="n">
-        <v>1.381993055343628</v>
+        <v>1.90212345123291</v>
       </c>
       <c r="V199" t="n">
         <v>1</v>
@@ -29834,18 +29834,18 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>0.05574560165405273</v>
+        <v>0.06376171112060547</v>
       </c>
       <c r="Q200" t="inlineStr"/>
       <c r="R200" t="n">
-        <v>0.6766743659973145</v>
+        <v>0.901402473449707</v>
       </c>
       <c r="S200" t="n">
-        <v>0.05574560165405273</v>
+        <v>0.06376171112060547</v>
       </c>
       <c r="T200" t="inlineStr"/>
       <c r="U200" t="n">
-        <v>0.6766743659973145</v>
+        <v>0.901402473449707</v>
       </c>
       <c r="V200" t="n">
         <v>1</v>
@@ -29980,22 +29980,22 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>0.01377248764038086</v>
+        <v>0.01603126525878906</v>
       </c>
       <c r="Q201" t="n">
-        <v>0</v>
+        <v>0.01199769973754883</v>
       </c>
       <c r="R201" t="n">
-        <v>2.052984476089478</v>
+        <v>2.731913328170776</v>
       </c>
       <c r="S201" t="n">
-        <v>0.01377248764038086</v>
+        <v>0.01603126525878906</v>
       </c>
       <c r="T201" t="n">
-        <v>0</v>
+        <v>0.01199769973754883</v>
       </c>
       <c r="U201" t="n">
-        <v>2.052984476089478</v>
+        <v>2.731913328170776</v>
       </c>
       <c r="V201" t="n">
         <v>1</v>
@@ -30130,22 +30130,22 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>0.01503300666809082</v>
+        <v>0.01577138900756836</v>
       </c>
       <c r="Q202" t="n">
-        <v>0.01341795921325684</v>
+        <v>0.01077389717102051</v>
       </c>
       <c r="R202" t="n">
-        <v>2.221107482910156</v>
+        <v>2.988720655441284</v>
       </c>
       <c r="S202" t="n">
-        <v>0.01503300666809082</v>
+        <v>0.01577138900756836</v>
       </c>
       <c r="T202" t="n">
-        <v>0.01341795921325684</v>
+        <v>0.01077389717102051</v>
       </c>
       <c r="U202" t="n">
-        <v>2.221107482910156</v>
+        <v>2.988720655441284</v>
       </c>
       <c r="V202" t="n">
         <v>1</v>
@@ -30278,18 +30278,18 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>0.01302933692932129</v>
+        <v>0.01577901840209961</v>
       </c>
       <c r="Q203" t="inlineStr"/>
       <c r="R203" t="n">
-        <v>1.165355443954468</v>
+        <v>1.554461717605591</v>
       </c>
       <c r="S203" t="n">
-        <v>0.01302933692932129</v>
+        <v>0.01577901840209961</v>
       </c>
       <c r="T203" t="inlineStr"/>
       <c r="U203" t="n">
-        <v>1.165355443954468</v>
+        <v>1.554461717605591</v>
       </c>
       <c r="V203" t="n">
         <v>1</v>
@@ -30424,22 +30424,22 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>0.01188492774963379</v>
+        <v>0.01001906394958496</v>
       </c>
       <c r="Q204" t="n">
-        <v>0.01361966133117676</v>
+        <v>0.009502172470092773</v>
       </c>
       <c r="R204" t="n">
-        <v>0.6698651313781738</v>
+        <v>1.046877384185791</v>
       </c>
       <c r="S204" t="n">
-        <v>0.01188492774963379</v>
+        <v>0.01001906394958496</v>
       </c>
       <c r="T204" t="n">
-        <v>0.01361966133117676</v>
+        <v>0.009502172470092773</v>
       </c>
       <c r="U204" t="n">
-        <v>0.6698651313781738</v>
+        <v>1.046877384185791</v>
       </c>
       <c r="V204" t="n">
         <v>1</v>
@@ -30574,22 +30574,22 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>0.01040267944335938</v>
+        <v>0.01378369331359863</v>
       </c>
       <c r="Q205" t="n">
-        <v>0.01563811302185059</v>
+        <v>0.01001882553100586</v>
       </c>
       <c r="R205" t="n">
-        <v>1.251844644546509</v>
+        <v>1.380878448486328</v>
       </c>
       <c r="S205" t="n">
-        <v>0.01040267944335938</v>
+        <v>0.01378369331359863</v>
       </c>
       <c r="T205" t="n">
-        <v>0.01563811302185059</v>
+        <v>0.01001882553100586</v>
       </c>
       <c r="U205" t="n">
-        <v>1.251844644546509</v>
+        <v>1.380878448486328</v>
       </c>
       <c r="V205" t="n">
         <v>1</v>
@@ -30722,18 +30722,18 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>0.01536464691162109</v>
+        <v>0.01778101921081543</v>
       </c>
       <c r="Q206" t="inlineStr"/>
       <c r="R206" t="n">
-        <v>1.880561590194702</v>
+        <v>2.485949039459229</v>
       </c>
       <c r="S206" t="n">
-        <v>0.01536464691162109</v>
+        <v>0.01778101921081543</v>
       </c>
       <c r="T206" t="inlineStr"/>
       <c r="U206" t="n">
-        <v>1.880561590194702</v>
+        <v>2.485949039459229</v>
       </c>
       <c r="V206" t="n">
         <v>1</v>
@@ -30868,22 +30868,22 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>0.008010625839233398</v>
+        <v>0.01202178001403809</v>
       </c>
       <c r="Q207" t="n">
-        <v>0</v>
+        <v>0.01677632331848145</v>
       </c>
       <c r="R207" t="n">
-        <v>0.5792944431304932</v>
+        <v>0.6158726215362549</v>
       </c>
       <c r="S207" t="n">
-        <v>0.008010625839233398</v>
+        <v>0.01202178001403809</v>
       </c>
       <c r="T207" t="n">
-        <v>0</v>
+        <v>0.01677632331848145</v>
       </c>
       <c r="U207" t="n">
-        <v>0.5792944431304932</v>
+        <v>0.6158726215362549</v>
       </c>
       <c r="V207" t="n">
         <v>1</v>
@@ -31016,18 +31016,18 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>0.01304054260253906</v>
+        <v>0.01819014549255371</v>
       </c>
       <c r="Q208" t="inlineStr"/>
       <c r="R208" t="n">
-        <v>0.2718801498413086</v>
+        <v>0.3323259353637695</v>
       </c>
       <c r="S208" t="n">
-        <v>0.01304054260253906</v>
+        <v>0.01819014549255371</v>
       </c>
       <c r="T208" t="inlineStr"/>
       <c r="U208" t="n">
-        <v>0.2718801498413086</v>
+        <v>0.3323259353637695</v>
       </c>
       <c r="V208" t="n">
         <v>1</v>
@@ -31162,22 +31162,22 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>0.0143287181854248</v>
+        <v>0.01378250122070312</v>
       </c>
       <c r="Q209" t="n">
-        <v>0.00893092155456543</v>
+        <v>0.01040506362915039</v>
       </c>
       <c r="R209" t="n">
-        <v>1.107045888900757</v>
+        <v>1.384348630905151</v>
       </c>
       <c r="S209" t="n">
-        <v>0.0143287181854248</v>
+        <v>0.01378250122070312</v>
       </c>
       <c r="T209" t="n">
-        <v>0.00893092155456543</v>
+        <v>0.01040506362915039</v>
       </c>
       <c r="U209" t="n">
-        <v>1.107045888900757</v>
+        <v>1.384348630905151</v>
       </c>
       <c r="V209" t="n">
         <v>1</v>
@@ -31312,22 +31312,22 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>0.01202249526977539</v>
+        <v>0.01378059387207031</v>
       </c>
       <c r="Q210" t="n">
-        <v>0</v>
+        <v>0.003738641738891602</v>
       </c>
       <c r="R210" t="n">
-        <v>0.8260524272918701</v>
+        <v>1.092159509658813</v>
       </c>
       <c r="S210" t="n">
-        <v>0.01202249526977539</v>
+        <v>0.01378059387207031</v>
       </c>
       <c r="T210" t="n">
-        <v>0</v>
+        <v>0.003738641738891602</v>
       </c>
       <c r="U210" t="n">
-        <v>0.8260524272918701</v>
+        <v>1.092159509658813</v>
       </c>
       <c r="V210" t="n">
         <v>1</v>
@@ -31462,22 +31462,22 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>0.06473445892333984</v>
+        <v>0.06580877304077148</v>
       </c>
       <c r="Q211" t="n">
-        <v>0.04197835922241211</v>
+        <v>0.04976105690002441</v>
       </c>
       <c r="R211" t="n">
-        <v>0.5371623039245605</v>
+        <v>0.7085282802581787</v>
       </c>
       <c r="S211" t="n">
-        <v>0.06473445892333984</v>
+        <v>0.06580877304077148</v>
       </c>
       <c r="T211" t="n">
-        <v>0.04197835922241211</v>
+        <v>0.04976105690002441</v>
       </c>
       <c r="U211" t="n">
-        <v>0.5371623039245605</v>
+        <v>0.7085282802581787</v>
       </c>
       <c r="V211" t="n">
         <v>1</v>
@@ -31612,22 +31612,22 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>0.01377177238464355</v>
+        <v>0.01510858535766602</v>
       </c>
       <c r="Q212" t="n">
-        <v>0.006276130676269531</v>
+        <v>0.005770683288574219</v>
       </c>
       <c r="R212" t="n">
-        <v>0.3808801174163818</v>
+        <v>0.4159111976623535</v>
       </c>
       <c r="S212" t="n">
-        <v>0.01377177238464355</v>
+        <v>0.01510858535766602</v>
       </c>
       <c r="T212" t="n">
-        <v>0.006276130676269531</v>
+        <v>0.005770683288574219</v>
       </c>
       <c r="U212" t="n">
-        <v>0.3808801174163818</v>
+        <v>0.4159111976623535</v>
       </c>
       <c r="V212" t="n">
         <v>1</v>
@@ -31760,18 +31760,18 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>0.008014202117919922</v>
+        <v>0.01365804672241211</v>
       </c>
       <c r="Q213" t="inlineStr"/>
       <c r="R213" t="n">
-        <v>0.1428303718566895</v>
+        <v>0.1785261631011963</v>
       </c>
       <c r="S213" t="n">
-        <v>0.008014202117919922</v>
+        <v>0.01365804672241211</v>
       </c>
       <c r="T213" t="inlineStr"/>
       <c r="U213" t="n">
-        <v>0.1428303718566895</v>
+        <v>0.1785261631011963</v>
       </c>
       <c r="V213" t="n">
         <v>1</v>
@@ -31906,22 +31906,22 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>0.01030898094177246</v>
+        <v>0.05394816398620605</v>
       </c>
       <c r="Q214" t="n">
-        <v>0.003000020980834961</v>
+        <v>0.008024692535400391</v>
       </c>
       <c r="R214" t="n">
-        <v>0.6802339553833008</v>
+        <v>0.9146428108215332</v>
       </c>
       <c r="S214" t="n">
-        <v>0.01030898094177246</v>
+        <v>0.05394816398620605</v>
       </c>
       <c r="T214" t="n">
-        <v>0.003000020980834961</v>
+        <v>0.008024692535400391</v>
       </c>
       <c r="U214" t="n">
-        <v>0.6802339553833008</v>
+        <v>0.9146428108215332</v>
       </c>
       <c r="V214" t="n">
         <v>1</v>
@@ -32056,22 +32056,22 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>0.008018255233764648</v>
+        <v>0.005754709243774414</v>
       </c>
       <c r="Q215" t="n">
-        <v>0.002003908157348633</v>
+        <v>0.001221656799316406</v>
       </c>
       <c r="R215" t="n">
-        <v>0.4499843120574951</v>
+        <v>0.6596314907073975</v>
       </c>
       <c r="S215" t="n">
-        <v>0.008018255233764648</v>
+        <v>0.005754709243774414</v>
       </c>
       <c r="T215" t="n">
-        <v>0.002003908157348633</v>
+        <v>0.001221656799316406</v>
       </c>
       <c r="U215" t="n">
-        <v>0.4499843120574951</v>
+        <v>0.6596314907073975</v>
       </c>
       <c r="V215" t="n">
         <v>1</v>
@@ -32206,22 +32206,22 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>0.01001620292663574</v>
+        <v>0.0137791633605957</v>
       </c>
       <c r="Q216" t="n">
-        <v>0</v>
+        <v>0.01001834869384766</v>
       </c>
       <c r="R216" t="n">
-        <v>0.8698170185089111</v>
+        <v>1.337979316711426</v>
       </c>
       <c r="S216" t="n">
-        <v>0.01001620292663574</v>
+        <v>0.0137791633605957</v>
       </c>
       <c r="T216" t="n">
-        <v>0</v>
+        <v>0.01001834869384766</v>
       </c>
       <c r="U216" t="n">
-        <v>0.8698170185089111</v>
+        <v>1.337979316711426</v>
       </c>
       <c r="V216" t="n">
         <v>1</v>
@@ -32356,22 +32356,22 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>0.05306363105773926</v>
+        <v>0.04977822303771973</v>
       </c>
       <c r="Q217" t="n">
-        <v>0.004003286361694336</v>
+        <v>0.006850957870483398</v>
       </c>
       <c r="R217" t="n">
-        <v>2.967969655990601</v>
+        <v>4.868330717086792</v>
       </c>
       <c r="S217" t="n">
-        <v>0.05306363105773926</v>
+        <v>0.04977822303771973</v>
       </c>
       <c r="T217" t="n">
-        <v>0.004003286361694336</v>
+        <v>0.006850957870483398</v>
       </c>
       <c r="U217" t="n">
-        <v>2.967969655990601</v>
+        <v>4.868330717086792</v>
       </c>
       <c r="V217" t="n">
         <v>1</v>
@@ -32504,18 +32504,18 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>0.01358985900878906</v>
+        <v>0.01353120803833008</v>
       </c>
       <c r="Q218" t="inlineStr"/>
       <c r="R218" t="n">
-        <v>0.2998747825622559</v>
+        <v>0.3776829242706299</v>
       </c>
       <c r="S218" t="n">
-        <v>0.01358985900878906</v>
+        <v>0.01353120803833008</v>
       </c>
       <c r="T218" t="inlineStr"/>
       <c r="U218" t="n">
-        <v>0.2998747825622559</v>
+        <v>0.3776829242706299</v>
       </c>
       <c r="V218" t="n">
         <v>1</v>
@@ -32648,18 +32648,18 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>0.01378083229064941</v>
+        <v>0.01528787612915039</v>
       </c>
       <c r="Q219" t="inlineStr"/>
       <c r="R219" t="n">
-        <v>0.4673256874084473</v>
+        <v>0.5912625789642334</v>
       </c>
       <c r="S219" t="n">
-        <v>0.01378083229064941</v>
+        <v>0.01528787612915039</v>
       </c>
       <c r="T219" t="inlineStr"/>
       <c r="U219" t="n">
-        <v>0.4673256874084473</v>
+        <v>0.5912625789642334</v>
       </c>
       <c r="V219" t="n">
         <v>1</v>
